--- a/results/double_strollers_All.xlsx
+++ b/results/double_strollers_All.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deank\Passive_Income\Best_Reviews__Blog\Scraper\Google_Shopping_Scraper\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FC95C-EB8A-43A3-A6B2-9A1E4D7E4E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA266306-87AF-460E-9C66-6E6907607223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="8840" windowWidth="16410" windowHeight="27970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2680" windowWidth="16200" windowHeight="27970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="V2" sheetId="2" r:id="rId2"/>
     <sheet name="best10" sheetId="3" r:id="rId3"/>
     <sheet name="reviews" sheetId="4" r:id="rId4"/>
+    <sheet name="sentiment" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4668" uniqueCount="687">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -2466,18 +2467,27 @@
     <t>Our first time using the stroller was on our family trip to Cancun. I needed a way to keep my 2 year old and 6 year old close to me in a busy airport but have them be comfortable too. The fact that the stroller is light it helped with the extra weight of my 6 year old :) I am able to maneuver the stroller easily with a single hand with both of them in it. I was able to take my children all the way up to the airplane door in the stroller no problem since it met airport storage regulations.
 It's easy to lift and very easy to fold up. The basket is amazing and fits everything we need. This stroller has been everywhere with us... water parks, theme parks and airports with no problems what so ever. The fact that it's narrow in width is really helpful as well as it helps ... More</t>
   </si>
+  <si>
+    <t>sentimentAnalysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2494,7 +2504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2517,13 +2527,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8285,7 +8316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -17145,9 +17176,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="47.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -21703,4 +21739,5130 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>6450</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2">
+        <v>1152</v>
+      </c>
+      <c r="K2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3">
+        <v>6450</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3">
+        <v>1369</v>
+      </c>
+      <c r="K3">
+        <v>21.2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F4">
+        <v>6450</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>497</v>
+      </c>
+      <c r="I4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4">
+        <v>764</v>
+      </c>
+      <c r="K4">
+        <v>11.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>6450</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>498</v>
+      </c>
+      <c r="I5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J5">
+        <v>711</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>411</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>6450</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J6">
+        <v>707</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F7">
+        <v>6450</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J7">
+        <v>677</v>
+      </c>
+      <c r="K7">
+        <v>10.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8">
+        <v>6450</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>501</v>
+      </c>
+      <c r="I8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J8">
+        <v>549</v>
+      </c>
+      <c r="K8">
+        <v>8.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>436</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F9">
+        <v>6450</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>502</v>
+      </c>
+      <c r="I9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J9">
+        <v>564</v>
+      </c>
+      <c r="K9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F10">
+        <v>6450</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>503</v>
+      </c>
+      <c r="I10" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10">
+        <v>426</v>
+      </c>
+      <c r="K10">
+        <v>6.6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>436</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>6450</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>505</v>
+      </c>
+      <c r="I11" t="s">
+        <v>396</v>
+      </c>
+      <c r="J11">
+        <v>297</v>
+      </c>
+      <c r="K11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L11" t="s">
+        <v>439</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F12">
+        <v>6450</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>506</v>
+      </c>
+      <c r="I12" t="s">
+        <v>427</v>
+      </c>
+      <c r="J12">
+        <v>214</v>
+      </c>
+      <c r="K12">
+        <v>3.3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>440</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>6450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13">
+        <v>78</v>
+      </c>
+      <c r="K13">
+        <v>1.2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>438</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F14">
+        <v>6450</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" t="s">
+        <v>508</v>
+      </c>
+      <c r="I14" t="s">
+        <v>441</v>
+      </c>
+      <c r="J14">
+        <v>68</v>
+      </c>
+      <c r="K14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>373</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F15">
+        <v>6450</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" t="s">
+        <v>430</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>406</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F16">
+        <v>6450</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>510</v>
+      </c>
+      <c r="I16" t="s">
+        <v>442</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>443</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F17">
+        <v>6450</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s">
+        <v>511</v>
+      </c>
+      <c r="I17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>418</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F18">
+        <v>6450</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" t="s">
+        <v>445</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>421</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F19">
+        <v>6450</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>513</v>
+      </c>
+      <c r="I19" t="s">
+        <v>446</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>375</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F20">
+        <v>6450</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
+        <v>515</v>
+      </c>
+      <c r="I20" t="s">
+        <v>447</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>426</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>516</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F22">
+        <v>380</v>
+      </c>
+      <c r="G22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H22" t="s">
+        <v>517</v>
+      </c>
+      <c r="I22" t="s">
+        <v>374</v>
+      </c>
+      <c r="J22">
+        <v>108</v>
+      </c>
+      <c r="K22">
+        <v>28.4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>482</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23">
+        <v>380</v>
+      </c>
+      <c r="G23" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" t="s">
+        <v>518</v>
+      </c>
+      <c r="I23" t="s">
+        <v>415</v>
+      </c>
+      <c r="J23">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <v>31.6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>419</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F24">
+        <v>380</v>
+      </c>
+      <c r="G24" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" t="s">
+        <v>520</v>
+      </c>
+      <c r="I24" t="s">
+        <v>381</v>
+      </c>
+      <c r="J24">
+        <v>68</v>
+      </c>
+      <c r="K24">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L24" t="s">
+        <v>419</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F25">
+        <v>380</v>
+      </c>
+      <c r="G25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H25" t="s">
+        <v>521</v>
+      </c>
+      <c r="I25" t="s">
+        <v>398</v>
+      </c>
+      <c r="J25">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>18.7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>395</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F26">
+        <v>380</v>
+      </c>
+      <c r="G26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H26" t="s">
+        <v>522</v>
+      </c>
+      <c r="I26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J26">
+        <v>29</v>
+      </c>
+      <c r="K26">
+        <v>7.6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>453</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>380</v>
+      </c>
+      <c r="G27" t="s">
+        <v>339</v>
+      </c>
+      <c r="H27" t="s">
+        <v>523</v>
+      </c>
+      <c r="I27" t="s">
+        <v>385</v>
+      </c>
+      <c r="J27">
+        <v>28</v>
+      </c>
+      <c r="K27">
+        <v>7.4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>431</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F28">
+        <v>380</v>
+      </c>
+      <c r="G28" t="s">
+        <v>340</v>
+      </c>
+      <c r="H28" t="s">
+        <v>524</v>
+      </c>
+      <c r="I28" t="s">
+        <v>480</v>
+      </c>
+      <c r="J28">
+        <v>31</v>
+      </c>
+      <c r="K28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L28" t="s">
+        <v>464</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F29">
+        <v>380</v>
+      </c>
+      <c r="G29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" t="s">
+        <v>525</v>
+      </c>
+      <c r="I29" t="s">
+        <v>383</v>
+      </c>
+      <c r="J29">
+        <v>21</v>
+      </c>
+      <c r="K29">
+        <v>5.5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>402</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F30">
+        <v>380</v>
+      </c>
+      <c r="G30" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" t="s">
+        <v>527</v>
+      </c>
+      <c r="I30" t="s">
+        <v>387</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>7.1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>405</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F31">
+        <v>380</v>
+      </c>
+      <c r="G31" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" t="s">
+        <v>528</v>
+      </c>
+      <c r="I31" t="s">
+        <v>392</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>2.6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>375</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F32">
+        <v>380</v>
+      </c>
+      <c r="G32" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" t="s">
+        <v>529</v>
+      </c>
+      <c r="I32" t="s">
+        <v>390</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>2.4</v>
+      </c>
+      <c r="L32" t="s">
+        <v>438</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>530</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>531</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>532</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>533</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>535</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>536</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39">
+        <v>4.5</v>
+      </c>
+      <c r="F39">
+        <v>1143</v>
+      </c>
+      <c r="G39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>538</v>
+      </c>
+      <c r="I39" t="s">
+        <v>385</v>
+      </c>
+      <c r="J39">
+        <v>212</v>
+      </c>
+      <c r="K39">
+        <v>18.5</v>
+      </c>
+      <c r="L39" t="s">
+        <v>424</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40">
+        <v>4.5</v>
+      </c>
+      <c r="F40">
+        <v>1143</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>539</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40">
+        <v>170</v>
+      </c>
+      <c r="K40">
+        <v>14.9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>408</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>4.5</v>
+      </c>
+      <c r="F41">
+        <v>1143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>540</v>
+      </c>
+      <c r="I41" t="s">
+        <v>415</v>
+      </c>
+      <c r="J41">
+        <v>146</v>
+      </c>
+      <c r="K41">
+        <v>12.8</v>
+      </c>
+      <c r="L41" t="s">
+        <v>406</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42">
+        <v>4.5</v>
+      </c>
+      <c r="F42">
+        <v>1143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>542</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42">
+        <v>115</v>
+      </c>
+      <c r="K42">
+        <v>10.1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>432</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43">
+        <v>4.5</v>
+      </c>
+      <c r="F43">
+        <v>1143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" t="s">
+        <v>543</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43">
+        <v>126</v>
+      </c>
+      <c r="K43">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
+        <v>433</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44">
+        <v>4.5</v>
+      </c>
+      <c r="F44">
+        <v>1143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>544</v>
+      </c>
+      <c r="I44" t="s">
+        <v>410</v>
+      </c>
+      <c r="J44">
+        <v>95</v>
+      </c>
+      <c r="K44">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L44" t="s">
+        <v>431</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45">
+        <v>4.5</v>
+      </c>
+      <c r="F45">
+        <v>1143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>545</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45">
+        <v>87</v>
+      </c>
+      <c r="K45">
+        <v>7.6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>434</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46">
+        <v>4.5</v>
+      </c>
+      <c r="F46">
+        <v>1143</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" t="s">
+        <v>547</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46">
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <v>4.7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>429</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>4.5</v>
+      </c>
+      <c r="F47">
+        <v>1143</v>
+      </c>
+      <c r="G47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>548</v>
+      </c>
+      <c r="I47" t="s">
+        <v>409</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48">
+        <v>4.5</v>
+      </c>
+      <c r="F48">
+        <v>1143</v>
+      </c>
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>549</v>
+      </c>
+      <c r="I48" t="s">
+        <v>392</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>0.8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>436</v>
+      </c>
+      <c r="M48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>550</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>552</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>553</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>554</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>555</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>556</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55">
+        <v>4.7</v>
+      </c>
+      <c r="F55">
+        <v>627</v>
+      </c>
+      <c r="G55" t="s">
+        <v>313</v>
+      </c>
+      <c r="H55" t="s">
+        <v>557</v>
+      </c>
+      <c r="I55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55">
+        <v>140</v>
+      </c>
+      <c r="K55">
+        <v>22.3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" t="s">
+        <v>311</v>
+      </c>
+      <c r="E56">
+        <v>4.7</v>
+      </c>
+      <c r="F56">
+        <v>627</v>
+      </c>
+      <c r="G56" t="s">
+        <v>316</v>
+      </c>
+      <c r="H56" t="s">
+        <v>558</v>
+      </c>
+      <c r="I56" t="s">
+        <v>372</v>
+      </c>
+      <c r="J56">
+        <v>113</v>
+      </c>
+      <c r="K56">
+        <v>18</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57">
+        <v>4.7</v>
+      </c>
+      <c r="F57">
+        <v>627</v>
+      </c>
+      <c r="G57" t="s">
+        <v>317</v>
+      </c>
+      <c r="H57" t="s">
+        <v>559</v>
+      </c>
+      <c r="I57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57">
+        <v>91</v>
+      </c>
+      <c r="K57">
+        <v>14.5</v>
+      </c>
+      <c r="L57" t="s">
+        <v>388</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58">
+        <v>4.7</v>
+      </c>
+      <c r="F58">
+        <v>627</v>
+      </c>
+      <c r="G58" t="s">
+        <v>318</v>
+      </c>
+      <c r="H58" t="s">
+        <v>560</v>
+      </c>
+      <c r="I58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58">
+        <v>81</v>
+      </c>
+      <c r="K58">
+        <v>12.9</v>
+      </c>
+      <c r="L58" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
+        <v>311</v>
+      </c>
+      <c r="E59">
+        <v>4.7</v>
+      </c>
+      <c r="F59">
+        <v>627</v>
+      </c>
+      <c r="G59" t="s">
+        <v>319</v>
+      </c>
+      <c r="H59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59">
+        <v>75</v>
+      </c>
+      <c r="K59">
+        <v>12</v>
+      </c>
+      <c r="L59" t="s">
+        <v>405</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60">
+        <v>4.7</v>
+      </c>
+      <c r="F60">
+        <v>627</v>
+      </c>
+      <c r="G60" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" t="s">
+        <v>562</v>
+      </c>
+      <c r="I60" t="s">
+        <v>381</v>
+      </c>
+      <c r="J60">
+        <v>48</v>
+      </c>
+      <c r="K60">
+        <v>7.7</v>
+      </c>
+      <c r="L60" t="s">
+        <v>406</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61">
+        <v>4.7</v>
+      </c>
+      <c r="F61">
+        <v>627</v>
+      </c>
+      <c r="G61" t="s">
+        <v>321</v>
+      </c>
+      <c r="H61" t="s">
+        <v>563</v>
+      </c>
+      <c r="I61" t="s">
+        <v>374</v>
+      </c>
+      <c r="J61">
+        <v>54</v>
+      </c>
+      <c r="K61">
+        <v>8.6</v>
+      </c>
+      <c r="L61" t="s">
+        <v>429</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62" t="s">
+        <v>311</v>
+      </c>
+      <c r="E62">
+        <v>4.7</v>
+      </c>
+      <c r="F62">
+        <v>627</v>
+      </c>
+      <c r="G62" t="s">
+        <v>322</v>
+      </c>
+      <c r="H62" t="s">
+        <v>564</v>
+      </c>
+      <c r="I62" t="s">
+        <v>410</v>
+      </c>
+      <c r="J62">
+        <v>40</v>
+      </c>
+      <c r="K62">
+        <v>6.4</v>
+      </c>
+      <c r="L62" t="s">
+        <v>429</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>311</v>
+      </c>
+      <c r="E63">
+        <v>4.7</v>
+      </c>
+      <c r="F63">
+        <v>627</v>
+      </c>
+      <c r="G63" t="s">
+        <v>323</v>
+      </c>
+      <c r="H63" t="s">
+        <v>565</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63">
+        <v>40</v>
+      </c>
+      <c r="K63">
+        <v>6.4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>422</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64">
+        <v>4.7</v>
+      </c>
+      <c r="F64">
+        <v>627</v>
+      </c>
+      <c r="G64" t="s">
+        <v>324</v>
+      </c>
+      <c r="H64" t="s">
+        <v>566</v>
+      </c>
+      <c r="I64" t="s">
+        <v>415</v>
+      </c>
+      <c r="J64">
+        <v>31</v>
+      </c>
+      <c r="K64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L64" t="s">
+        <v>456</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65">
+        <v>4.7</v>
+      </c>
+      <c r="F65">
+        <v>627</v>
+      </c>
+      <c r="G65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" t="s">
+        <v>567</v>
+      </c>
+      <c r="I65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J65">
+        <v>19</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66">
+        <v>4.7</v>
+      </c>
+      <c r="F66">
+        <v>627</v>
+      </c>
+      <c r="G66" t="s">
+        <v>326</v>
+      </c>
+      <c r="H66" t="s">
+        <v>568</v>
+      </c>
+      <c r="I66" t="s">
+        <v>430</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>1.6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>456</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67">
+        <v>4.7</v>
+      </c>
+      <c r="F67">
+        <v>627</v>
+      </c>
+      <c r="G67" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" t="s">
+        <v>569</v>
+      </c>
+      <c r="I67" t="s">
+        <v>390</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>1.3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>386</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68">
+        <v>4.7</v>
+      </c>
+      <c r="F68">
+        <v>627</v>
+      </c>
+      <c r="G68" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" t="s">
+        <v>570</v>
+      </c>
+      <c r="I68" t="s">
+        <v>481</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0.2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>386</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H70" t="s">
+        <v>572</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H72" t="s">
+        <v>574</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
+        <v>575</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H74" t="s">
+        <v>576</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F75">
+        <v>317</v>
+      </c>
+      <c r="G75" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" t="s">
+        <v>577</v>
+      </c>
+      <c r="I75" t="s">
+        <v>370</v>
+      </c>
+      <c r="J75">
+        <v>79</v>
+      </c>
+      <c r="K75">
+        <v>24.9</v>
+      </c>
+      <c r="L75" t="s">
+        <v>456</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F76">
+        <v>317</v>
+      </c>
+      <c r="G76" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" t="s">
+        <v>578</v>
+      </c>
+      <c r="I76" t="s">
+        <v>372</v>
+      </c>
+      <c r="J76">
+        <v>66</v>
+      </c>
+      <c r="K76">
+        <v>20.8</v>
+      </c>
+      <c r="L76" t="s">
+        <v>431</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F77">
+        <v>317</v>
+      </c>
+      <c r="G77" t="s">
+        <v>179</v>
+      </c>
+      <c r="H77" t="s">
+        <v>579</v>
+      </c>
+      <c r="I77" t="s">
+        <v>374</v>
+      </c>
+      <c r="J77">
+        <v>44</v>
+      </c>
+      <c r="K77">
+        <v>13.9</v>
+      </c>
+      <c r="L77" t="s">
+        <v>457</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F78">
+        <v>317</v>
+      </c>
+      <c r="G78" t="s">
+        <v>180</v>
+      </c>
+      <c r="H78" t="s">
+        <v>580</v>
+      </c>
+      <c r="I78" t="s">
+        <v>376</v>
+      </c>
+      <c r="J78">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>14.8</v>
+      </c>
+      <c r="L78" t="s">
+        <v>408</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F79">
+        <v>317</v>
+      </c>
+      <c r="G79" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" t="s">
+        <v>581</v>
+      </c>
+      <c r="I79" t="s">
+        <v>415</v>
+      </c>
+      <c r="J79">
+        <v>28</v>
+      </c>
+      <c r="K79">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L79" t="s">
+        <v>451</v>
+      </c>
+      <c r="M79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F80">
+        <v>317</v>
+      </c>
+      <c r="G80" t="s">
+        <v>182</v>
+      </c>
+      <c r="H80" t="s">
+        <v>582</v>
+      </c>
+      <c r="I80" t="s">
+        <v>381</v>
+      </c>
+      <c r="J80">
+        <v>32</v>
+      </c>
+      <c r="K80">
+        <v>10.1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>456</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F81">
+        <v>317</v>
+      </c>
+      <c r="G81" t="s">
+        <v>183</v>
+      </c>
+      <c r="H81" t="s">
+        <v>583</v>
+      </c>
+      <c r="I81" t="s">
+        <v>383</v>
+      </c>
+      <c r="J81">
+        <v>26</v>
+      </c>
+      <c r="K81">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L81" t="s">
+        <v>405</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F82">
+        <v>317</v>
+      </c>
+      <c r="G82" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82" t="s">
+        <v>584</v>
+      </c>
+      <c r="I82" t="s">
+        <v>377</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>7.9</v>
+      </c>
+      <c r="L82" t="s">
+        <v>458</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F83">
+        <v>317</v>
+      </c>
+      <c r="G83" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" t="s">
+        <v>585</v>
+      </c>
+      <c r="I83" t="s">
+        <v>385</v>
+      </c>
+      <c r="J83">
+        <v>18</v>
+      </c>
+      <c r="K83">
+        <v>5.7</v>
+      </c>
+      <c r="L83" t="s">
+        <v>371</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F84">
+        <v>317</v>
+      </c>
+      <c r="G84" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" t="s">
+        <v>586</v>
+      </c>
+      <c r="I84" t="s">
+        <v>459</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>2.8</v>
+      </c>
+      <c r="L84" t="s">
+        <v>386</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F85">
+        <v>317</v>
+      </c>
+      <c r="G85" t="s">
+        <v>187</v>
+      </c>
+      <c r="H85" t="s">
+        <v>587</v>
+      </c>
+      <c r="I85" t="s">
+        <v>389</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>1.9</v>
+      </c>
+      <c r="L85" t="s">
+        <v>426</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F86">
+        <v>317</v>
+      </c>
+      <c r="G86" t="s">
+        <v>189</v>
+      </c>
+      <c r="H86" t="s">
+        <v>589</v>
+      </c>
+      <c r="I86" t="s">
+        <v>390</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0.3</v>
+      </c>
+      <c r="L86" t="s">
+        <v>386</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H87" t="s">
+        <v>591</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H88" t="s">
+        <v>592</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H89" t="s">
+        <v>593</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H90" t="s">
+        <v>594</v>
+      </c>
+      <c r="M90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H91" t="s">
+        <v>595</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H92" t="s">
+        <v>596</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F93">
+        <v>381</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>597</v>
+      </c>
+      <c r="I93" t="s">
+        <v>370</v>
+      </c>
+      <c r="J93">
+        <v>115</v>
+      </c>
+      <c r="K93">
+        <v>30.2</v>
+      </c>
+      <c r="L93" t="s">
+        <v>371</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F94">
+        <v>381</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>598</v>
+      </c>
+      <c r="I94" t="s">
+        <v>372</v>
+      </c>
+      <c r="J94">
+        <v>81</v>
+      </c>
+      <c r="K94">
+        <v>21.3</v>
+      </c>
+      <c r="L94" t="s">
+        <v>373</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F95">
+        <v>381</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>599</v>
+      </c>
+      <c r="I95" t="s">
+        <v>374</v>
+      </c>
+      <c r="J95">
+        <v>57</v>
+      </c>
+      <c r="K95">
+        <v>15</v>
+      </c>
+      <c r="L95" t="s">
+        <v>375</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F96">
+        <v>381</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>600</v>
+      </c>
+      <c r="I96" t="s">
+        <v>376</v>
+      </c>
+      <c r="J96">
+        <v>48</v>
+      </c>
+      <c r="K96">
+        <v>12.6</v>
+      </c>
+      <c r="L96" t="s">
+        <v>373</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F97">
+        <v>381</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>601</v>
+      </c>
+      <c r="I97" t="s">
+        <v>377</v>
+      </c>
+      <c r="J97">
+        <v>46</v>
+      </c>
+      <c r="K97">
+        <v>12.1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>378</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F98">
+        <v>381</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s">
+        <v>602</v>
+      </c>
+      <c r="I98" t="s">
+        <v>379</v>
+      </c>
+      <c r="J98">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>11</v>
+      </c>
+      <c r="L98" t="s">
+        <v>380</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F99">
+        <v>381</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="s">
+        <v>603</v>
+      </c>
+      <c r="I99" t="s">
+        <v>381</v>
+      </c>
+      <c r="J99">
+        <v>23</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+      <c r="L99" t="s">
+        <v>382</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F100">
+        <v>381</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>604</v>
+      </c>
+      <c r="I100" t="s">
+        <v>383</v>
+      </c>
+      <c r="J100">
+        <v>18</v>
+      </c>
+      <c r="K100">
+        <v>4.7</v>
+      </c>
+      <c r="L100" t="s">
+        <v>384</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F101">
+        <v>381</v>
+      </c>
+      <c r="G101" t="s">
+        <v>25</v>
+      </c>
+      <c r="H101" t="s">
+        <v>605</v>
+      </c>
+      <c r="I101" t="s">
+        <v>385</v>
+      </c>
+      <c r="J101">
+        <v>19</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101" t="s">
+        <v>386</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F102">
+        <v>381</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" t="s">
+        <v>606</v>
+      </c>
+      <c r="I102" t="s">
+        <v>387</v>
+      </c>
+      <c r="J102">
+        <v>15</v>
+      </c>
+      <c r="K102">
+        <v>3.9</v>
+      </c>
+      <c r="L102" t="s">
+        <v>388</v>
+      </c>
+      <c r="M102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F103">
+        <v>381</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>607</v>
+      </c>
+      <c r="I103" t="s">
+        <v>389</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>386</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F104">
+        <v>381</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>608</v>
+      </c>
+      <c r="I104" t="s">
+        <v>390</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>391</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F105">
+        <v>381</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s">
+        <v>609</v>
+      </c>
+      <c r="I105" t="s">
+        <v>392</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0.3</v>
+      </c>
+      <c r="L105" t="s">
+        <v>386</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H106" t="s">
+        <v>610</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H107" t="s">
+        <v>611</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H108" t="s">
+        <v>612</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H109" t="s">
+        <v>613</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H110" t="s">
+        <v>614</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F111">
+        <v>461</v>
+      </c>
+      <c r="G111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" t="s">
+        <v>618</v>
+      </c>
+      <c r="I111" t="s">
+        <v>413</v>
+      </c>
+      <c r="J111">
+        <v>113</v>
+      </c>
+      <c r="K111">
+        <v>24.5</v>
+      </c>
+      <c r="L111" t="s">
+        <v>414</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F112">
+        <v>461</v>
+      </c>
+      <c r="G112" t="s">
+        <v>60</v>
+      </c>
+      <c r="H112" t="s">
+        <v>619</v>
+      </c>
+      <c r="I112" t="s">
+        <v>415</v>
+      </c>
+      <c r="J112">
+        <v>96</v>
+      </c>
+      <c r="K112">
+        <v>20.8</v>
+      </c>
+      <c r="L112" t="s">
+        <v>388</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F113">
+        <v>461</v>
+      </c>
+      <c r="G113" t="s">
+        <v>63</v>
+      </c>
+      <c r="H113" t="s">
+        <v>620</v>
+      </c>
+      <c r="I113" t="s">
+        <v>398</v>
+      </c>
+      <c r="J113">
+        <v>90</v>
+      </c>
+      <c r="K113">
+        <v>19.5</v>
+      </c>
+      <c r="L113" t="s">
+        <v>416</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E114">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F114">
+        <v>461</v>
+      </c>
+      <c r="G114" t="s">
+        <v>64</v>
+      </c>
+      <c r="H114" t="s">
+        <v>621</v>
+      </c>
+      <c r="I114" t="s">
+        <v>377</v>
+      </c>
+      <c r="J114">
+        <v>60</v>
+      </c>
+      <c r="K114">
+        <v>13</v>
+      </c>
+      <c r="L114" t="s">
+        <v>417</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F115">
+        <v>461</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" t="s">
+        <v>622</v>
+      </c>
+      <c r="I115" t="s">
+        <v>396</v>
+      </c>
+      <c r="J115">
+        <v>50</v>
+      </c>
+      <c r="K115">
+        <v>10.8</v>
+      </c>
+      <c r="L115" t="s">
+        <v>418</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F116">
+        <v>461</v>
+      </c>
+      <c r="G116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H116" t="s">
+        <v>623</v>
+      </c>
+      <c r="I116" t="s">
+        <v>381</v>
+      </c>
+      <c r="J116">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L116" t="s">
+        <v>384</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="E117">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F117">
+        <v>461</v>
+      </c>
+      <c r="G117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H117" t="s">
+        <v>624</v>
+      </c>
+      <c r="I117" t="s">
+        <v>385</v>
+      </c>
+      <c r="J117">
+        <v>50</v>
+      </c>
+      <c r="K117">
+        <v>10.8</v>
+      </c>
+      <c r="L117" t="s">
+        <v>419</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F118">
+        <v>461</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>625</v>
+      </c>
+      <c r="I118" t="s">
+        <v>387</v>
+      </c>
+      <c r="J118">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L118" t="s">
+        <v>386</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F119">
+        <v>461</v>
+      </c>
+      <c r="G119" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" t="s">
+        <v>626</v>
+      </c>
+      <c r="I119" t="s">
+        <v>403</v>
+      </c>
+      <c r="J119">
+        <v>40</v>
+      </c>
+      <c r="K119">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L119" t="s">
+        <v>420</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F120">
+        <v>461</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>628</v>
+      </c>
+      <c r="I120" t="s">
+        <v>390</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+      <c r="K120">
+        <v>1.5</v>
+      </c>
+      <c r="L120" t="s">
+        <v>421</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F121">
+        <v>461</v>
+      </c>
+      <c r="G121" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" t="s">
+        <v>629</v>
+      </c>
+      <c r="I121" t="s">
+        <v>392</v>
+      </c>
+      <c r="J121">
+        <v>5</v>
+      </c>
+      <c r="K121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L121" t="s">
+        <v>375</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H122" t="s">
+        <v>631</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H123" t="s">
+        <v>632</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H124" t="s">
+        <v>633</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H125" t="s">
+        <v>634</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H126" t="s">
+        <v>635</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H127" t="s">
+        <v>636</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" t="s">
+        <v>215</v>
+      </c>
+      <c r="E128">
+        <v>4.3</v>
+      </c>
+      <c r="F128">
+        <v>397</v>
+      </c>
+      <c r="G128" t="s">
+        <v>213</v>
+      </c>
+      <c r="H128" t="s">
+        <v>637</v>
+      </c>
+      <c r="I128" t="s">
+        <v>398</v>
+      </c>
+      <c r="J128">
+        <v>104</v>
+      </c>
+      <c r="K128">
+        <v>26.2</v>
+      </c>
+      <c r="L128" t="s">
+        <v>458</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>217</v>
+      </c>
+      <c r="E129">
+        <v>4.3</v>
+      </c>
+      <c r="F129">
+        <v>397</v>
+      </c>
+      <c r="G129" t="s">
+        <v>216</v>
+      </c>
+      <c r="H129" t="s">
+        <v>638</v>
+      </c>
+      <c r="I129" t="s">
+        <v>394</v>
+      </c>
+      <c r="J129">
+        <v>88</v>
+      </c>
+      <c r="K129">
+        <v>22.2</v>
+      </c>
+      <c r="L129" t="s">
+        <v>399</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" t="s">
+        <v>220</v>
+      </c>
+      <c r="E130">
+        <v>4.3</v>
+      </c>
+      <c r="F130">
+        <v>397</v>
+      </c>
+      <c r="G130" t="s">
+        <v>218</v>
+      </c>
+      <c r="H130" t="s">
+        <v>639</v>
+      </c>
+      <c r="I130" t="s">
+        <v>372</v>
+      </c>
+      <c r="J130">
+        <v>54</v>
+      </c>
+      <c r="K130">
+        <v>13.6</v>
+      </c>
+      <c r="L130" t="s">
+        <v>432</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>210</v>
+      </c>
+      <c r="B131" t="s">
+        <v>211</v>
+      </c>
+      <c r="E131">
+        <v>4.3</v>
+      </c>
+      <c r="F131">
+        <v>397</v>
+      </c>
+      <c r="G131" t="s">
+        <v>221</v>
+      </c>
+      <c r="H131" t="s">
+        <v>640</v>
+      </c>
+      <c r="I131" t="s">
+        <v>466</v>
+      </c>
+      <c r="J131">
+        <v>50</v>
+      </c>
+      <c r="K131">
+        <v>12.6</v>
+      </c>
+      <c r="L131" t="s">
+        <v>467</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132">
+        <v>4.3</v>
+      </c>
+      <c r="F132">
+        <v>397</v>
+      </c>
+      <c r="G132" t="s">
+        <v>222</v>
+      </c>
+      <c r="H132" t="s">
+        <v>641</v>
+      </c>
+      <c r="I132" t="s">
+        <v>376</v>
+      </c>
+      <c r="J132">
+        <v>42</v>
+      </c>
+      <c r="K132">
+        <v>10.6</v>
+      </c>
+      <c r="L132" t="s">
+        <v>384</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133">
+        <v>4.3</v>
+      </c>
+      <c r="F133">
+        <v>397</v>
+      </c>
+      <c r="G133" t="s">
+        <v>223</v>
+      </c>
+      <c r="H133" t="s">
+        <v>642</v>
+      </c>
+      <c r="I133" t="s">
+        <v>401</v>
+      </c>
+      <c r="J133">
+        <v>27</v>
+      </c>
+      <c r="K133">
+        <v>6.8</v>
+      </c>
+      <c r="L133" t="s">
+        <v>453</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>211</v>
+      </c>
+      <c r="E134">
+        <v>4.3</v>
+      </c>
+      <c r="F134">
+        <v>397</v>
+      </c>
+      <c r="G134" t="s">
+        <v>224</v>
+      </c>
+      <c r="H134" t="s">
+        <v>643</v>
+      </c>
+      <c r="I134" t="s">
+        <v>385</v>
+      </c>
+      <c r="J134">
+        <v>33</v>
+      </c>
+      <c r="K134">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L134" t="s">
+        <v>408</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" t="s">
+        <v>211</v>
+      </c>
+      <c r="E135">
+        <v>4.3</v>
+      </c>
+      <c r="F135">
+        <v>397</v>
+      </c>
+      <c r="G135" t="s">
+        <v>225</v>
+      </c>
+      <c r="H135" t="s">
+        <v>644</v>
+      </c>
+      <c r="I135" t="s">
+        <v>381</v>
+      </c>
+      <c r="J135">
+        <v>23</v>
+      </c>
+      <c r="K135">
+        <v>5.8</v>
+      </c>
+      <c r="L135" t="s">
+        <v>402</v>
+      </c>
+      <c r="M135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136">
+        <v>4.3</v>
+      </c>
+      <c r="F136">
+        <v>397</v>
+      </c>
+      <c r="G136" t="s">
+        <v>226</v>
+      </c>
+      <c r="H136" t="s">
+        <v>645</v>
+      </c>
+      <c r="I136" t="s">
+        <v>387</v>
+      </c>
+      <c r="J136">
+        <v>30</v>
+      </c>
+      <c r="K136">
+        <v>7.6</v>
+      </c>
+      <c r="L136" t="s">
+        <v>386</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" t="s">
+        <v>211</v>
+      </c>
+      <c r="E137">
+        <v>4.3</v>
+      </c>
+      <c r="F137">
+        <v>397</v>
+      </c>
+      <c r="G137" t="s">
+        <v>227</v>
+      </c>
+      <c r="H137" t="s">
+        <v>646</v>
+      </c>
+      <c r="I137" t="s">
+        <v>383</v>
+      </c>
+      <c r="J137">
+        <v>19</v>
+      </c>
+      <c r="K137">
+        <v>4.8</v>
+      </c>
+      <c r="L137" t="s">
+        <v>402</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138">
+        <v>4.3</v>
+      </c>
+      <c r="F138">
+        <v>397</v>
+      </c>
+      <c r="G138" t="s">
+        <v>228</v>
+      </c>
+      <c r="H138" t="s">
+        <v>647</v>
+      </c>
+      <c r="I138" t="s">
+        <v>410</v>
+      </c>
+      <c r="J138">
+        <v>11</v>
+      </c>
+      <c r="K138">
+        <v>2.8</v>
+      </c>
+      <c r="L138" t="s">
+        <v>408</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139">
+        <v>4.3</v>
+      </c>
+      <c r="F139">
+        <v>397</v>
+      </c>
+      <c r="G139" t="s">
+        <v>230</v>
+      </c>
+      <c r="H139" t="s">
+        <v>649</v>
+      </c>
+      <c r="I139" t="s">
+        <v>468</v>
+      </c>
+      <c r="J139">
+        <v>4</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>391</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140">
+        <v>4.3</v>
+      </c>
+      <c r="F140">
+        <v>397</v>
+      </c>
+      <c r="G140" t="s">
+        <v>231</v>
+      </c>
+      <c r="H140" t="s">
+        <v>650</v>
+      </c>
+      <c r="I140" t="s">
+        <v>392</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>386</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" t="s">
+        <v>211</v>
+      </c>
+      <c r="E141">
+        <v>4.3</v>
+      </c>
+      <c r="F141">
+        <v>397</v>
+      </c>
+      <c r="G141" t="s">
+        <v>233</v>
+      </c>
+      <c r="H141" t="s">
+        <v>652</v>
+      </c>
+      <c r="I141" t="s">
+        <v>442</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>0.3</v>
+      </c>
+      <c r="L141" t="s">
+        <v>386</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" t="s">
+        <v>211</v>
+      </c>
+      <c r="E142">
+        <v>4.3</v>
+      </c>
+      <c r="F142">
+        <v>397</v>
+      </c>
+      <c r="G142" t="s">
+        <v>234</v>
+      </c>
+      <c r="H142" t="s">
+        <v>653</v>
+      </c>
+      <c r="I142" t="s">
+        <v>469</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>0.3</v>
+      </c>
+      <c r="L142" t="s">
+        <v>386</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143">
+        <v>4.3</v>
+      </c>
+      <c r="F143">
+        <v>397</v>
+      </c>
+      <c r="G143" t="s">
+        <v>236</v>
+      </c>
+      <c r="H143" t="s">
+        <v>655</v>
+      </c>
+      <c r="I143" t="s">
+        <v>471</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>0.3</v>
+      </c>
+      <c r="L143" t="s">
+        <v>386</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H144" t="s">
+        <v>656</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" t="s">
+        <v>296</v>
+      </c>
+      <c r="D145" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F145">
+        <v>1219</v>
+      </c>
+      <c r="G145" t="s">
+        <v>295</v>
+      </c>
+      <c r="H145" t="s">
+        <v>657</v>
+      </c>
+      <c r="I145" t="s">
+        <v>372</v>
+      </c>
+      <c r="J145">
+        <v>227</v>
+      </c>
+      <c r="K145">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L145" t="s">
+        <v>476</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F146">
+        <v>1219</v>
+      </c>
+      <c r="G146" t="s">
+        <v>297</v>
+      </c>
+      <c r="H146" t="s">
+        <v>658</v>
+      </c>
+      <c r="I146" t="s">
+        <v>374</v>
+      </c>
+      <c r="J146">
+        <v>164</v>
+      </c>
+      <c r="K146">
+        <v>13.5</v>
+      </c>
+      <c r="L146" t="s">
+        <v>426</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" t="s">
+        <v>299</v>
+      </c>
+      <c r="E147">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F147">
+        <v>1219</v>
+      </c>
+      <c r="G147" t="s">
+        <v>298</v>
+      </c>
+      <c r="H147" t="s">
+        <v>659</v>
+      </c>
+      <c r="I147" t="s">
+        <v>415</v>
+      </c>
+      <c r="J147">
+        <v>170</v>
+      </c>
+      <c r="K147">
+        <v>13.9</v>
+      </c>
+      <c r="L147" t="s">
+        <v>375</v>
+      </c>
+      <c r="M147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="E148">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F148">
+        <v>1219</v>
+      </c>
+      <c r="G148" t="s">
+        <v>301</v>
+      </c>
+      <c r="H148" t="s">
+        <v>661</v>
+      </c>
+      <c r="I148" t="s">
+        <v>377</v>
+      </c>
+      <c r="J148">
+        <v>155</v>
+      </c>
+      <c r="K148">
+        <v>12.7</v>
+      </c>
+      <c r="L148" t="s">
+        <v>478</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+      <c r="E149">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F149">
+        <v>1219</v>
+      </c>
+      <c r="G149" t="s">
+        <v>302</v>
+      </c>
+      <c r="H149" t="s">
+        <v>662</v>
+      </c>
+      <c r="I149" t="s">
+        <v>396</v>
+      </c>
+      <c r="J149">
+        <v>114</v>
+      </c>
+      <c r="K149">
+        <v>9.4</v>
+      </c>
+      <c r="L149" t="s">
+        <v>479</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" t="s">
+        <v>293</v>
+      </c>
+      <c r="E150">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F150">
+        <v>1219</v>
+      </c>
+      <c r="G150" t="s">
+        <v>303</v>
+      </c>
+      <c r="H150" t="s">
+        <v>663</v>
+      </c>
+      <c r="I150" t="s">
+        <v>403</v>
+      </c>
+      <c r="J150">
+        <v>140</v>
+      </c>
+      <c r="K150">
+        <v>11.5</v>
+      </c>
+      <c r="L150" t="s">
+        <v>420</v>
+      </c>
+      <c r="M150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" t="s">
+        <v>293</v>
+      </c>
+      <c r="E151">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F151">
+        <v>1219</v>
+      </c>
+      <c r="G151" t="s">
+        <v>305</v>
+      </c>
+      <c r="H151" t="s">
+        <v>665</v>
+      </c>
+      <c r="I151" t="s">
+        <v>385</v>
+      </c>
+      <c r="J151">
+        <v>108</v>
+      </c>
+      <c r="K151">
+        <v>8.9</v>
+      </c>
+      <c r="L151" t="s">
+        <v>405</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="E152">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F152">
+        <v>1219</v>
+      </c>
+      <c r="G152" t="s">
+        <v>306</v>
+      </c>
+      <c r="H152" t="s">
+        <v>666</v>
+      </c>
+      <c r="I152" t="s">
+        <v>387</v>
+      </c>
+      <c r="J152">
+        <v>47</v>
+      </c>
+      <c r="K152">
+        <v>3.9</v>
+      </c>
+      <c r="L152" t="s">
+        <v>408</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>292</v>
+      </c>
+      <c r="B153" t="s">
+        <v>293</v>
+      </c>
+      <c r="E153">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F153">
+        <v>1219</v>
+      </c>
+      <c r="G153" t="s">
+        <v>307</v>
+      </c>
+      <c r="H153" t="s">
+        <v>667</v>
+      </c>
+      <c r="I153" t="s">
+        <v>430</v>
+      </c>
+      <c r="J153">
+        <v>35</v>
+      </c>
+      <c r="K153">
+        <v>2.9</v>
+      </c>
+      <c r="L153" t="s">
+        <v>431</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" t="s">
+        <v>293</v>
+      </c>
+      <c r="E154">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F154">
+        <v>1219</v>
+      </c>
+      <c r="G154" t="s">
+        <v>308</v>
+      </c>
+      <c r="H154" t="s">
+        <v>668</v>
+      </c>
+      <c r="I154" t="s">
+        <v>410</v>
+      </c>
+      <c r="J154">
+        <v>32</v>
+      </c>
+      <c r="K154">
+        <v>2.6</v>
+      </c>
+      <c r="L154" t="s">
+        <v>436</v>
+      </c>
+      <c r="M154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>292</v>
+      </c>
+      <c r="B155" t="s">
+        <v>293</v>
+      </c>
+      <c r="E155">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F155">
+        <v>1219</v>
+      </c>
+      <c r="G155" t="s">
+        <v>309</v>
+      </c>
+      <c r="H155" t="s">
+        <v>669</v>
+      </c>
+      <c r="I155" t="s">
+        <v>409</v>
+      </c>
+      <c r="J155">
+        <v>20</v>
+      </c>
+      <c r="K155">
+        <v>1.6</v>
+      </c>
+      <c r="L155" t="s">
+        <v>452</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H156" t="s">
+        <v>670</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H157" t="s">
+        <v>671</v>
+      </c>
+      <c r="M157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H158" t="s">
+        <v>673</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H159" t="s">
+        <v>674</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H160" t="s">
+        <v>675</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H161" t="s">
+        <v>676</v>
+      </c>
+      <c r="M161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
+        <v>219</v>
+      </c>
+      <c r="D162" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162">
+        <v>4.3</v>
+      </c>
+      <c r="F162">
+        <v>444</v>
+      </c>
+      <c r="G162" t="s">
+        <v>349</v>
+      </c>
+      <c r="H162" t="s">
+        <v>677</v>
+      </c>
+      <c r="I162" t="s">
+        <v>370</v>
+      </c>
+      <c r="J162">
+        <v>99</v>
+      </c>
+      <c r="K162">
+        <v>22.3</v>
+      </c>
+      <c r="L162" t="s">
+        <v>393</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>350</v>
+      </c>
+      <c r="E163">
+        <v>4.3</v>
+      </c>
+      <c r="F163">
+        <v>444</v>
+      </c>
+      <c r="G163" t="s">
+        <v>351</v>
+      </c>
+      <c r="H163" t="s">
+        <v>638</v>
+      </c>
+      <c r="I163" t="s">
+        <v>394</v>
+      </c>
+      <c r="J163">
+        <v>106</v>
+      </c>
+      <c r="K163">
+        <v>23.9</v>
+      </c>
+      <c r="L163" t="s">
+        <v>478</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>346</v>
+      </c>
+      <c r="B164" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" t="s">
+        <v>353</v>
+      </c>
+      <c r="D164" t="s">
+        <v>350</v>
+      </c>
+      <c r="E164">
+        <v>4.3</v>
+      </c>
+      <c r="F164">
+        <v>444</v>
+      </c>
+      <c r="G164" t="s">
+        <v>352</v>
+      </c>
+      <c r="H164" t="s">
+        <v>640</v>
+      </c>
+      <c r="I164" t="s">
+        <v>372</v>
+      </c>
+      <c r="J164">
+        <v>64</v>
+      </c>
+      <c r="K164">
+        <v>14.4</v>
+      </c>
+      <c r="L164" t="s">
+        <v>384</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" t="s">
+        <v>347</v>
+      </c>
+      <c r="E165">
+        <v>4.3</v>
+      </c>
+      <c r="F165">
+        <v>444</v>
+      </c>
+      <c r="G165" t="s">
+        <v>354</v>
+      </c>
+      <c r="H165" t="s">
+        <v>643</v>
+      </c>
+      <c r="I165" t="s">
+        <v>379</v>
+      </c>
+      <c r="J165">
+        <v>72</v>
+      </c>
+      <c r="K165">
+        <v>16.2</v>
+      </c>
+      <c r="L165" t="s">
+        <v>473</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
+      </c>
+      <c r="E166">
+        <v>4.3</v>
+      </c>
+      <c r="F166">
+        <v>444</v>
+      </c>
+      <c r="G166" t="s">
+        <v>355</v>
+      </c>
+      <c r="H166" t="s">
+        <v>644</v>
+      </c>
+      <c r="I166" t="s">
+        <v>376</v>
+      </c>
+      <c r="J166">
+        <v>40</v>
+      </c>
+      <c r="K166">
+        <v>9</v>
+      </c>
+      <c r="L166" t="s">
+        <v>438</v>
+      </c>
+      <c r="M166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>346</v>
+      </c>
+      <c r="B167" t="s">
+        <v>347</v>
+      </c>
+      <c r="E167">
+        <v>4.3</v>
+      </c>
+      <c r="F167">
+        <v>444</v>
+      </c>
+      <c r="G167" t="s">
+        <v>356</v>
+      </c>
+      <c r="H167" t="s">
+        <v>645</v>
+      </c>
+      <c r="I167" t="s">
+        <v>381</v>
+      </c>
+      <c r="J167">
+        <v>33</v>
+      </c>
+      <c r="K167">
+        <v>7.4</v>
+      </c>
+      <c r="L167" t="s">
+        <v>453</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" t="s">
+        <v>347</v>
+      </c>
+      <c r="E168">
+        <v>4.3</v>
+      </c>
+      <c r="F168">
+        <v>444</v>
+      </c>
+      <c r="G168" t="s">
+        <v>357</v>
+      </c>
+      <c r="H168" t="s">
+        <v>678</v>
+      </c>
+      <c r="I168" t="s">
+        <v>377</v>
+      </c>
+      <c r="J168">
+        <v>48</v>
+      </c>
+      <c r="K168">
+        <v>10.8</v>
+      </c>
+      <c r="L168" t="s">
+        <v>443</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>346</v>
+      </c>
+      <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="E169">
+        <v>4.3</v>
+      </c>
+      <c r="F169">
+        <v>444</v>
+      </c>
+      <c r="G169" t="s">
+        <v>359</v>
+      </c>
+      <c r="H169" t="s">
+        <v>679</v>
+      </c>
+      <c r="I169" t="s">
+        <v>385</v>
+      </c>
+      <c r="J169">
+        <v>27</v>
+      </c>
+      <c r="K169">
+        <v>6.1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>405</v>
+      </c>
+      <c r="M169">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
+        <v>347</v>
+      </c>
+      <c r="E170">
+        <v>4.3</v>
+      </c>
+      <c r="F170">
+        <v>444</v>
+      </c>
+      <c r="G170" t="s">
+        <v>360</v>
+      </c>
+      <c r="H170" t="s">
+        <v>649</v>
+      </c>
+      <c r="I170" t="s">
+        <v>403</v>
+      </c>
+      <c r="J170">
+        <v>25</v>
+      </c>
+      <c r="K170">
+        <v>5.6</v>
+      </c>
+      <c r="L170" t="s">
+        <v>400</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" t="s">
+        <v>347</v>
+      </c>
+      <c r="E171">
+        <v>4.3</v>
+      </c>
+      <c r="F171">
+        <v>444</v>
+      </c>
+      <c r="G171" t="s">
+        <v>361</v>
+      </c>
+      <c r="H171" t="s">
+        <v>680</v>
+      </c>
+      <c r="I171" t="s">
+        <v>410</v>
+      </c>
+      <c r="J171">
+        <v>16</v>
+      </c>
+      <c r="K171">
+        <v>3.6</v>
+      </c>
+      <c r="L171" t="s">
+        <v>386</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>346</v>
+      </c>
+      <c r="B172" t="s">
+        <v>347</v>
+      </c>
+      <c r="E172">
+        <v>4.3</v>
+      </c>
+      <c r="F172">
+        <v>444</v>
+      </c>
+      <c r="G172" t="s">
+        <v>362</v>
+      </c>
+      <c r="H172" t="s">
+        <v>681</v>
+      </c>
+      <c r="I172" t="s">
+        <v>392</v>
+      </c>
+      <c r="J172">
+        <v>10</v>
+      </c>
+      <c r="K172">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L172" t="s">
+        <v>431</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" t="s">
+        <v>347</v>
+      </c>
+      <c r="E173">
+        <v>4.3</v>
+      </c>
+      <c r="F173">
+        <v>444</v>
+      </c>
+      <c r="G173" t="s">
+        <v>363</v>
+      </c>
+      <c r="H173" t="s">
+        <v>682</v>
+      </c>
+      <c r="I173" t="s">
+        <v>390</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="K173">
+        <v>0.7</v>
+      </c>
+      <c r="L173" t="s">
+        <v>426</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+      <c r="E174">
+        <v>4.3</v>
+      </c>
+      <c r="F174">
+        <v>444</v>
+      </c>
+      <c r="G174" t="s">
+        <v>364</v>
+      </c>
+      <c r="H174" t="s">
+        <v>683</v>
+      </c>
+      <c r="I174" t="s">
+        <v>468</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>0.2</v>
+      </c>
+      <c r="L174" t="s">
+        <v>386</v>
+      </c>
+      <c r="M174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H175" t="s">
+        <v>652</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H176" t="s">
+        <v>653</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H177" t="s">
+        <v>684</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H178" t="s">
+        <v>685</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H179" t="s">
+        <v>655</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results/double_strollers_All.xlsx
+++ b/results/double_strollers_All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deank\Passive_Income\Best_Reviews__Blog\Scraper\Google_Shopping_Scraper\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA266306-87AF-460E-9C66-6E6907607223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866AB192-2319-4BE8-8DE4-9D041CECD8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2680" windowWidth="16200" windowHeight="27970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="37900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="best10" sheetId="3" r:id="rId3"/>
     <sheet name="reviews" sheetId="4" r:id="rId4"/>
     <sheet name="sentiment" sheetId="5" r:id="rId5"/>
+    <sheet name="finalFeatureScore" sheetId="6" r:id="rId6"/>
+    <sheet name="best5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4668" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5671" uniqueCount="693">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -2470,18 +2472,42 @@
   <si>
     <t>sentimentAnalysis</t>
   </si>
+  <si>
+    <t>PositivePercentage</t>
+  </si>
+  <si>
+    <t>NegativePercentage</t>
+  </si>
+  <si>
+    <t>finalFeatureScore</t>
+  </si>
+  <si>
+    <t>average_feature_score</t>
+  </si>
+  <si>
+    <t>positive_sentiment_rate</t>
+  </si>
+  <si>
+    <t>normalized_sentiment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2504,7 +2530,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2542,11 +2568,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2555,6 +2596,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -16873,7 +16917,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21745,19 +21789,5283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>6450</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2">
+        <v>1152</v>
+      </c>
+      <c r="K2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3">
+        <v>6450</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3">
+        <v>1369</v>
+      </c>
+      <c r="K3">
+        <v>21.2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F4">
+        <v>6450</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>497</v>
+      </c>
+      <c r="I4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4">
+        <v>764</v>
+      </c>
+      <c r="K4">
+        <v>11.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>6450</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>498</v>
+      </c>
+      <c r="I5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J5">
+        <v>711</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>411</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>6450</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J6">
+        <v>707</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F7">
+        <v>6450</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J7">
+        <v>677</v>
+      </c>
+      <c r="K7">
+        <v>10.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8">
+        <v>6450</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>501</v>
+      </c>
+      <c r="I8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J8">
+        <v>549</v>
+      </c>
+      <c r="K8">
+        <v>8.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>436</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F9">
+        <v>6450</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>502</v>
+      </c>
+      <c r="I9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J9">
+        <v>564</v>
+      </c>
+      <c r="K9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F10">
+        <v>6450</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>503</v>
+      </c>
+      <c r="I10" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10">
+        <v>426</v>
+      </c>
+      <c r="K10">
+        <v>6.6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>436</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>6450</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>505</v>
+      </c>
+      <c r="I11" t="s">
+        <v>396</v>
+      </c>
+      <c r="J11">
+        <v>297</v>
+      </c>
+      <c r="K11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L11" t="s">
+        <v>439</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F12">
+        <v>6450</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>506</v>
+      </c>
+      <c r="I12" t="s">
+        <v>427</v>
+      </c>
+      <c r="J12">
+        <v>214</v>
+      </c>
+      <c r="K12">
+        <v>3.3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>440</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>6450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13">
+        <v>78</v>
+      </c>
+      <c r="K13">
+        <v>1.2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>438</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F14">
+        <v>6450</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" t="s">
+        <v>508</v>
+      </c>
+      <c r="I14" t="s">
+        <v>441</v>
+      </c>
+      <c r="J14">
+        <v>68</v>
+      </c>
+      <c r="K14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>373</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F15">
+        <v>6450</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" t="s">
+        <v>430</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>406</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F16">
+        <v>6450</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>510</v>
+      </c>
+      <c r="I16" t="s">
+        <v>442</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>443</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F17">
+        <v>6450</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s">
+        <v>511</v>
+      </c>
+      <c r="I17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>418</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F18">
+        <v>6450</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" t="s">
+        <v>445</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>421</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F19">
+        <v>6450</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>513</v>
+      </c>
+      <c r="I19" t="s">
+        <v>446</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>375</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F20">
+        <v>6450</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" t="s">
+        <v>515</v>
+      </c>
+      <c r="I20" t="s">
+        <v>447</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>426</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>516</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F22">
+        <v>380</v>
+      </c>
+      <c r="G22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H22" t="s">
+        <v>517</v>
+      </c>
+      <c r="I22" t="s">
+        <v>374</v>
+      </c>
+      <c r="J22">
+        <v>108</v>
+      </c>
+      <c r="K22">
+        <v>28.4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>482</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23">
+        <v>380</v>
+      </c>
+      <c r="G23" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" t="s">
+        <v>518</v>
+      </c>
+      <c r="I23" t="s">
+        <v>415</v>
+      </c>
+      <c r="J23">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <v>31.6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>419</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F24">
+        <v>380</v>
+      </c>
+      <c r="G24" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" t="s">
+        <v>520</v>
+      </c>
+      <c r="I24" t="s">
+        <v>381</v>
+      </c>
+      <c r="J24">
+        <v>68</v>
+      </c>
+      <c r="K24">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L24" t="s">
+        <v>419</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F25">
+        <v>380</v>
+      </c>
+      <c r="G25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H25" t="s">
+        <v>521</v>
+      </c>
+      <c r="I25" t="s">
+        <v>398</v>
+      </c>
+      <c r="J25">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>18.7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>395</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F26">
+        <v>380</v>
+      </c>
+      <c r="G26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H26" t="s">
+        <v>522</v>
+      </c>
+      <c r="I26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J26">
+        <v>29</v>
+      </c>
+      <c r="K26">
+        <v>7.6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>453</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>380</v>
+      </c>
+      <c r="G27" t="s">
+        <v>339</v>
+      </c>
+      <c r="H27" t="s">
+        <v>523</v>
+      </c>
+      <c r="I27" t="s">
+        <v>385</v>
+      </c>
+      <c r="J27">
+        <v>28</v>
+      </c>
+      <c r="K27">
+        <v>7.4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>431</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F28">
+        <v>380</v>
+      </c>
+      <c r="G28" t="s">
+        <v>340</v>
+      </c>
+      <c r="H28" t="s">
+        <v>524</v>
+      </c>
+      <c r="I28" t="s">
+        <v>480</v>
+      </c>
+      <c r="J28">
+        <v>31</v>
+      </c>
+      <c r="K28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L28" t="s">
+        <v>464</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F29">
+        <v>380</v>
+      </c>
+      <c r="G29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" t="s">
+        <v>525</v>
+      </c>
+      <c r="I29" t="s">
+        <v>383</v>
+      </c>
+      <c r="J29">
+        <v>21</v>
+      </c>
+      <c r="K29">
+        <v>5.5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>402</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F30">
+        <v>380</v>
+      </c>
+      <c r="G30" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" t="s">
+        <v>527</v>
+      </c>
+      <c r="I30" t="s">
+        <v>387</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>7.1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>405</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F31">
+        <v>380</v>
+      </c>
+      <c r="G31" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" t="s">
+        <v>528</v>
+      </c>
+      <c r="I31" t="s">
+        <v>392</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>2.6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>375</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F32">
+        <v>380</v>
+      </c>
+      <c r="G32" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" t="s">
+        <v>529</v>
+      </c>
+      <c r="I32" t="s">
+        <v>390</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>2.4</v>
+      </c>
+      <c r="L32" t="s">
+        <v>438</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" t="s">
+        <v>530</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" t="s">
+        <v>531</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>329</v>
+      </c>
+      <c r="H35" t="s">
+        <v>532</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>329</v>
+      </c>
+      <c r="H36" t="s">
+        <v>533</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>329</v>
+      </c>
+      <c r="H37" t="s">
+        <v>535</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" t="s">
+        <v>536</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39">
+        <v>4.5</v>
+      </c>
+      <c r="F39">
+        <v>1143</v>
+      </c>
+      <c r="G39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>538</v>
+      </c>
+      <c r="I39" t="s">
+        <v>385</v>
+      </c>
+      <c r="J39">
+        <v>212</v>
+      </c>
+      <c r="K39">
+        <v>18.5</v>
+      </c>
+      <c r="L39" t="s">
+        <v>424</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40">
+        <v>4.5</v>
+      </c>
+      <c r="F40">
+        <v>1143</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>539</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40">
+        <v>170</v>
+      </c>
+      <c r="K40">
+        <v>14.9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>408</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>4.5</v>
+      </c>
+      <c r="F41">
+        <v>1143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>540</v>
+      </c>
+      <c r="I41" t="s">
+        <v>415</v>
+      </c>
+      <c r="J41">
+        <v>146</v>
+      </c>
+      <c r="K41">
+        <v>12.8</v>
+      </c>
+      <c r="L41" t="s">
+        <v>406</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42">
+        <v>4.5</v>
+      </c>
+      <c r="F42">
+        <v>1143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>542</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42">
+        <v>115</v>
+      </c>
+      <c r="K42">
+        <v>10.1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>432</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43">
+        <v>4.5</v>
+      </c>
+      <c r="F43">
+        <v>1143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" t="s">
+        <v>543</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43">
+        <v>126</v>
+      </c>
+      <c r="K43">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
+        <v>433</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44">
+        <v>4.5</v>
+      </c>
+      <c r="F44">
+        <v>1143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>544</v>
+      </c>
+      <c r="I44" t="s">
+        <v>410</v>
+      </c>
+      <c r="J44">
+        <v>95</v>
+      </c>
+      <c r="K44">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L44" t="s">
+        <v>431</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45">
+        <v>4.5</v>
+      </c>
+      <c r="F45">
+        <v>1143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>545</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45">
+        <v>87</v>
+      </c>
+      <c r="K45">
+        <v>7.6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>434</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46">
+        <v>4.5</v>
+      </c>
+      <c r="F46">
+        <v>1143</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" t="s">
+        <v>547</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46">
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <v>4.7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>429</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>4.5</v>
+      </c>
+      <c r="F47">
+        <v>1143</v>
+      </c>
+      <c r="G47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>548</v>
+      </c>
+      <c r="I47" t="s">
+        <v>409</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48">
+        <v>4.5</v>
+      </c>
+      <c r="F48">
+        <v>1143</v>
+      </c>
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>549</v>
+      </c>
+      <c r="I48" t="s">
+        <v>392</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>0.8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>436</v>
+      </c>
+      <c r="M48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s">
+        <v>550</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s">
+        <v>552</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>553</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" t="s">
+        <v>554</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" t="s">
+        <v>555</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s">
+        <v>556</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55">
+        <v>4.7</v>
+      </c>
+      <c r="F55">
+        <v>627</v>
+      </c>
+      <c r="G55" t="s">
+        <v>313</v>
+      </c>
+      <c r="H55" t="s">
+        <v>557</v>
+      </c>
+      <c r="I55" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55">
+        <v>140</v>
+      </c>
+      <c r="K55">
+        <v>22.3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" t="s">
+        <v>311</v>
+      </c>
+      <c r="E56">
+        <v>4.7</v>
+      </c>
+      <c r="F56">
+        <v>627</v>
+      </c>
+      <c r="G56" t="s">
+        <v>316</v>
+      </c>
+      <c r="H56" t="s">
+        <v>558</v>
+      </c>
+      <c r="I56" t="s">
+        <v>372</v>
+      </c>
+      <c r="J56">
+        <v>113</v>
+      </c>
+      <c r="K56">
+        <v>18</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57">
+        <v>4.7</v>
+      </c>
+      <c r="F57">
+        <v>627</v>
+      </c>
+      <c r="G57" t="s">
+        <v>317</v>
+      </c>
+      <c r="H57" t="s">
+        <v>559</v>
+      </c>
+      <c r="I57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57">
+        <v>91</v>
+      </c>
+      <c r="K57">
+        <v>14.5</v>
+      </c>
+      <c r="L57" t="s">
+        <v>388</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>310</v>
+      </c>
+      <c r="B58" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58">
+        <v>4.7</v>
+      </c>
+      <c r="F58">
+        <v>627</v>
+      </c>
+      <c r="G58" t="s">
+        <v>318</v>
+      </c>
+      <c r="H58" t="s">
+        <v>560</v>
+      </c>
+      <c r="I58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58">
+        <v>81</v>
+      </c>
+      <c r="K58">
+        <v>12.9</v>
+      </c>
+      <c r="L58" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
+        <v>311</v>
+      </c>
+      <c r="E59">
+        <v>4.7</v>
+      </c>
+      <c r="F59">
+        <v>627</v>
+      </c>
+      <c r="G59" t="s">
+        <v>319</v>
+      </c>
+      <c r="H59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59">
+        <v>75</v>
+      </c>
+      <c r="K59">
+        <v>12</v>
+      </c>
+      <c r="L59" t="s">
+        <v>405</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60">
+        <v>4.7</v>
+      </c>
+      <c r="F60">
+        <v>627</v>
+      </c>
+      <c r="G60" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" t="s">
+        <v>562</v>
+      </c>
+      <c r="I60" t="s">
+        <v>381</v>
+      </c>
+      <c r="J60">
+        <v>48</v>
+      </c>
+      <c r="K60">
+        <v>7.7</v>
+      </c>
+      <c r="L60" t="s">
+        <v>406</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61">
+        <v>4.7</v>
+      </c>
+      <c r="F61">
+        <v>627</v>
+      </c>
+      <c r="G61" t="s">
+        <v>321</v>
+      </c>
+      <c r="H61" t="s">
+        <v>563</v>
+      </c>
+      <c r="I61" t="s">
+        <v>374</v>
+      </c>
+      <c r="J61">
+        <v>54</v>
+      </c>
+      <c r="K61">
+        <v>8.6</v>
+      </c>
+      <c r="L61" t="s">
+        <v>429</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62" t="s">
+        <v>311</v>
+      </c>
+      <c r="E62">
+        <v>4.7</v>
+      </c>
+      <c r="F62">
+        <v>627</v>
+      </c>
+      <c r="G62" t="s">
+        <v>322</v>
+      </c>
+      <c r="H62" t="s">
+        <v>564</v>
+      </c>
+      <c r="I62" t="s">
+        <v>410</v>
+      </c>
+      <c r="J62">
+        <v>40</v>
+      </c>
+      <c r="K62">
+        <v>6.4</v>
+      </c>
+      <c r="L62" t="s">
+        <v>429</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>311</v>
+      </c>
+      <c r="E63">
+        <v>4.7</v>
+      </c>
+      <c r="F63">
+        <v>627</v>
+      </c>
+      <c r="G63" t="s">
+        <v>323</v>
+      </c>
+      <c r="H63" t="s">
+        <v>565</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63">
+        <v>40</v>
+      </c>
+      <c r="K63">
+        <v>6.4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>422</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64">
+        <v>4.7</v>
+      </c>
+      <c r="F64">
+        <v>627</v>
+      </c>
+      <c r="G64" t="s">
+        <v>324</v>
+      </c>
+      <c r="H64" t="s">
+        <v>566</v>
+      </c>
+      <c r="I64" t="s">
+        <v>415</v>
+      </c>
+      <c r="J64">
+        <v>31</v>
+      </c>
+      <c r="K64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L64" t="s">
+        <v>456</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65">
+        <v>4.7</v>
+      </c>
+      <c r="F65">
+        <v>627</v>
+      </c>
+      <c r="G65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" t="s">
+        <v>567</v>
+      </c>
+      <c r="I65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J65">
+        <v>19</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66">
+        <v>4.7</v>
+      </c>
+      <c r="F66">
+        <v>627</v>
+      </c>
+      <c r="G66" t="s">
+        <v>326</v>
+      </c>
+      <c r="H66" t="s">
+        <v>568</v>
+      </c>
+      <c r="I66" t="s">
+        <v>430</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>1.6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>456</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67">
+        <v>4.7</v>
+      </c>
+      <c r="F67">
+        <v>627</v>
+      </c>
+      <c r="G67" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" t="s">
+        <v>569</v>
+      </c>
+      <c r="I67" t="s">
+        <v>390</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>1.3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>386</v>
+      </c>
+      <c r="M67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68">
+        <v>4.7</v>
+      </c>
+      <c r="F68">
+        <v>627</v>
+      </c>
+      <c r="G68" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" t="s">
+        <v>570</v>
+      </c>
+      <c r="I68" t="s">
+        <v>481</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0.2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>386</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="H69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>310</v>
+      </c>
+      <c r="H70" t="s">
+        <v>572</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>310</v>
+      </c>
+      <c r="H71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>310</v>
+      </c>
+      <c r="H72" t="s">
+        <v>574</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>310</v>
+      </c>
+      <c r="H73" t="s">
+        <v>575</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>310</v>
+      </c>
+      <c r="H74" t="s">
+        <v>576</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F75">
+        <v>317</v>
+      </c>
+      <c r="G75" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" t="s">
+        <v>577</v>
+      </c>
+      <c r="I75" t="s">
+        <v>370</v>
+      </c>
+      <c r="J75">
+        <v>79</v>
+      </c>
+      <c r="K75">
+        <v>24.9</v>
+      </c>
+      <c r="L75" t="s">
+        <v>456</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F76">
+        <v>317</v>
+      </c>
+      <c r="G76" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" t="s">
+        <v>578</v>
+      </c>
+      <c r="I76" t="s">
+        <v>372</v>
+      </c>
+      <c r="J76">
+        <v>66</v>
+      </c>
+      <c r="K76">
+        <v>20.8</v>
+      </c>
+      <c r="L76" t="s">
+        <v>431</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F77">
+        <v>317</v>
+      </c>
+      <c r="G77" t="s">
+        <v>179</v>
+      </c>
+      <c r="H77" t="s">
+        <v>579</v>
+      </c>
+      <c r="I77" t="s">
+        <v>374</v>
+      </c>
+      <c r="J77">
+        <v>44</v>
+      </c>
+      <c r="K77">
+        <v>13.9</v>
+      </c>
+      <c r="L77" t="s">
+        <v>457</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F78">
+        <v>317</v>
+      </c>
+      <c r="G78" t="s">
+        <v>180</v>
+      </c>
+      <c r="H78" t="s">
+        <v>580</v>
+      </c>
+      <c r="I78" t="s">
+        <v>376</v>
+      </c>
+      <c r="J78">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>14.8</v>
+      </c>
+      <c r="L78" t="s">
+        <v>408</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F79">
+        <v>317</v>
+      </c>
+      <c r="G79" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" t="s">
+        <v>581</v>
+      </c>
+      <c r="I79" t="s">
+        <v>415</v>
+      </c>
+      <c r="J79">
+        <v>28</v>
+      </c>
+      <c r="K79">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L79" t="s">
+        <v>451</v>
+      </c>
+      <c r="M79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F80">
+        <v>317</v>
+      </c>
+      <c r="G80" t="s">
+        <v>182</v>
+      </c>
+      <c r="H80" t="s">
+        <v>582</v>
+      </c>
+      <c r="I80" t="s">
+        <v>381</v>
+      </c>
+      <c r="J80">
+        <v>32</v>
+      </c>
+      <c r="K80">
+        <v>10.1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>456</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F81">
+        <v>317</v>
+      </c>
+      <c r="G81" t="s">
+        <v>183</v>
+      </c>
+      <c r="H81" t="s">
+        <v>583</v>
+      </c>
+      <c r="I81" t="s">
+        <v>383</v>
+      </c>
+      <c r="J81">
+        <v>26</v>
+      </c>
+      <c r="K81">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L81" t="s">
+        <v>405</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F82">
+        <v>317</v>
+      </c>
+      <c r="G82" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82" t="s">
+        <v>584</v>
+      </c>
+      <c r="I82" t="s">
+        <v>377</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>7.9</v>
+      </c>
+      <c r="L82" t="s">
+        <v>458</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F83">
+        <v>317</v>
+      </c>
+      <c r="G83" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" t="s">
+        <v>585</v>
+      </c>
+      <c r="I83" t="s">
+        <v>385</v>
+      </c>
+      <c r="J83">
+        <v>18</v>
+      </c>
+      <c r="K83">
+        <v>5.7</v>
+      </c>
+      <c r="L83" t="s">
+        <v>371</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F84">
+        <v>317</v>
+      </c>
+      <c r="G84" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" t="s">
+        <v>586</v>
+      </c>
+      <c r="I84" t="s">
+        <v>459</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>2.8</v>
+      </c>
+      <c r="L84" t="s">
+        <v>386</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F85">
+        <v>317</v>
+      </c>
+      <c r="G85" t="s">
+        <v>187</v>
+      </c>
+      <c r="H85" t="s">
+        <v>587</v>
+      </c>
+      <c r="I85" t="s">
+        <v>389</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>1.9</v>
+      </c>
+      <c r="L85" t="s">
+        <v>426</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F86">
+        <v>317</v>
+      </c>
+      <c r="G86" t="s">
+        <v>189</v>
+      </c>
+      <c r="H86" t="s">
+        <v>589</v>
+      </c>
+      <c r="I86" t="s">
+        <v>390</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0.3</v>
+      </c>
+      <c r="L86" t="s">
+        <v>386</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="H87" t="s">
+        <v>591</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="H88" t="s">
+        <v>592</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="H89" t="s">
+        <v>593</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="H90" t="s">
+        <v>594</v>
+      </c>
+      <c r="M90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+      <c r="H91" t="s">
+        <v>595</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="H92" t="s">
+        <v>596</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F93">
+        <v>381</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>597</v>
+      </c>
+      <c r="I93" t="s">
+        <v>370</v>
+      </c>
+      <c r="J93">
+        <v>115</v>
+      </c>
+      <c r="K93">
+        <v>30.2</v>
+      </c>
+      <c r="L93" t="s">
+        <v>371</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F94">
+        <v>381</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>598</v>
+      </c>
+      <c r="I94" t="s">
+        <v>372</v>
+      </c>
+      <c r="J94">
+        <v>81</v>
+      </c>
+      <c r="K94">
+        <v>21.3</v>
+      </c>
+      <c r="L94" t="s">
+        <v>373</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F95">
+        <v>381</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>599</v>
+      </c>
+      <c r="I95" t="s">
+        <v>374</v>
+      </c>
+      <c r="J95">
+        <v>57</v>
+      </c>
+      <c r="K95">
+        <v>15</v>
+      </c>
+      <c r="L95" t="s">
+        <v>375</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F96">
+        <v>381</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>600</v>
+      </c>
+      <c r="I96" t="s">
+        <v>376</v>
+      </c>
+      <c r="J96">
+        <v>48</v>
+      </c>
+      <c r="K96">
+        <v>12.6</v>
+      </c>
+      <c r="L96" t="s">
+        <v>373</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F97">
+        <v>381</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>601</v>
+      </c>
+      <c r="I97" t="s">
+        <v>377</v>
+      </c>
+      <c r="J97">
+        <v>46</v>
+      </c>
+      <c r="K97">
+        <v>12.1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>378</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F98">
+        <v>381</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s">
+        <v>602</v>
+      </c>
+      <c r="I98" t="s">
+        <v>379</v>
+      </c>
+      <c r="J98">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>11</v>
+      </c>
+      <c r="L98" t="s">
+        <v>380</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F99">
+        <v>381</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="s">
+        <v>603</v>
+      </c>
+      <c r="I99" t="s">
+        <v>381</v>
+      </c>
+      <c r="J99">
+        <v>23</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+      <c r="L99" t="s">
+        <v>382</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F100">
+        <v>381</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>604</v>
+      </c>
+      <c r="I100" t="s">
+        <v>383</v>
+      </c>
+      <c r="J100">
+        <v>18</v>
+      </c>
+      <c r="K100">
+        <v>4.7</v>
+      </c>
+      <c r="L100" t="s">
+        <v>384</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F101">
+        <v>381</v>
+      </c>
+      <c r="G101" t="s">
+        <v>25</v>
+      </c>
+      <c r="H101" t="s">
+        <v>605</v>
+      </c>
+      <c r="I101" t="s">
+        <v>385</v>
+      </c>
+      <c r="J101">
+        <v>19</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101" t="s">
+        <v>386</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F102">
+        <v>381</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" t="s">
+        <v>606</v>
+      </c>
+      <c r="I102" t="s">
+        <v>387</v>
+      </c>
+      <c r="J102">
+        <v>15</v>
+      </c>
+      <c r="K102">
+        <v>3.9</v>
+      </c>
+      <c r="L102" t="s">
+        <v>388</v>
+      </c>
+      <c r="M102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F103">
+        <v>381</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>607</v>
+      </c>
+      <c r="I103" t="s">
+        <v>389</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>386</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F104">
+        <v>381</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>608</v>
+      </c>
+      <c r="I104" t="s">
+        <v>390</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>391</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F105">
+        <v>381</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s">
+        <v>609</v>
+      </c>
+      <c r="I105" t="s">
+        <v>392</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0.3</v>
+      </c>
+      <c r="L105" t="s">
+        <v>386</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" t="s">
+        <v>610</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>611</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>612</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
+        <v>613</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
+        <v>614</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F111">
+        <v>461</v>
+      </c>
+      <c r="G111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" t="s">
+        <v>618</v>
+      </c>
+      <c r="I111" t="s">
+        <v>413</v>
+      </c>
+      <c r="J111">
+        <v>113</v>
+      </c>
+      <c r="K111">
+        <v>24.5</v>
+      </c>
+      <c r="L111" t="s">
+        <v>414</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F112">
+        <v>461</v>
+      </c>
+      <c r="G112" t="s">
+        <v>60</v>
+      </c>
+      <c r="H112" t="s">
+        <v>619</v>
+      </c>
+      <c r="I112" t="s">
+        <v>415</v>
+      </c>
+      <c r="J112">
+        <v>96</v>
+      </c>
+      <c r="K112">
+        <v>20.8</v>
+      </c>
+      <c r="L112" t="s">
+        <v>388</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F113">
+        <v>461</v>
+      </c>
+      <c r="G113" t="s">
+        <v>63</v>
+      </c>
+      <c r="H113" t="s">
+        <v>620</v>
+      </c>
+      <c r="I113" t="s">
+        <v>398</v>
+      </c>
+      <c r="J113">
+        <v>90</v>
+      </c>
+      <c r="K113">
+        <v>19.5</v>
+      </c>
+      <c r="L113" t="s">
+        <v>416</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E114">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F114">
+        <v>461</v>
+      </c>
+      <c r="G114" t="s">
+        <v>64</v>
+      </c>
+      <c r="H114" t="s">
+        <v>621</v>
+      </c>
+      <c r="I114" t="s">
+        <v>377</v>
+      </c>
+      <c r="J114">
+        <v>60</v>
+      </c>
+      <c r="K114">
+        <v>13</v>
+      </c>
+      <c r="L114" t="s">
+        <v>417</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F115">
+        <v>461</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" t="s">
+        <v>622</v>
+      </c>
+      <c r="I115" t="s">
+        <v>396</v>
+      </c>
+      <c r="J115">
+        <v>50</v>
+      </c>
+      <c r="K115">
+        <v>10.8</v>
+      </c>
+      <c r="L115" t="s">
+        <v>418</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F116">
+        <v>461</v>
+      </c>
+      <c r="G116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H116" t="s">
+        <v>623</v>
+      </c>
+      <c r="I116" t="s">
+        <v>381</v>
+      </c>
+      <c r="J116">
+        <v>45</v>
+      </c>
+      <c r="K116">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L116" t="s">
+        <v>384</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="E117">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F117">
+        <v>461</v>
+      </c>
+      <c r="G117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H117" t="s">
+        <v>624</v>
+      </c>
+      <c r="I117" t="s">
+        <v>385</v>
+      </c>
+      <c r="J117">
+        <v>50</v>
+      </c>
+      <c r="K117">
+        <v>10.8</v>
+      </c>
+      <c r="L117" t="s">
+        <v>419</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F118">
+        <v>461</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>625</v>
+      </c>
+      <c r="I118" t="s">
+        <v>387</v>
+      </c>
+      <c r="J118">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L118" t="s">
+        <v>386</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F119">
+        <v>461</v>
+      </c>
+      <c r="G119" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" t="s">
+        <v>626</v>
+      </c>
+      <c r="I119" t="s">
+        <v>403</v>
+      </c>
+      <c r="J119">
+        <v>40</v>
+      </c>
+      <c r="K119">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L119" t="s">
+        <v>420</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F120">
+        <v>461</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>628</v>
+      </c>
+      <c r="I120" t="s">
+        <v>390</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+      <c r="K120">
+        <v>1.5</v>
+      </c>
+      <c r="L120" t="s">
+        <v>421</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F121">
+        <v>461</v>
+      </c>
+      <c r="G121" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" t="s">
+        <v>629</v>
+      </c>
+      <c r="I121" t="s">
+        <v>392</v>
+      </c>
+      <c r="J121">
+        <v>5</v>
+      </c>
+      <c r="K121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L121" t="s">
+        <v>375</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>52</v>
+      </c>
+      <c r="H122" t="s">
+        <v>631</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>52</v>
+      </c>
+      <c r="H123" t="s">
+        <v>632</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>52</v>
+      </c>
+      <c r="H124" t="s">
+        <v>633</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="H125" t="s">
+        <v>634</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" t="s">
+        <v>635</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>52</v>
+      </c>
+      <c r="H127" t="s">
+        <v>636</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" t="s">
+        <v>215</v>
+      </c>
+      <c r="E128">
+        <v>4.3</v>
+      </c>
+      <c r="F128">
+        <v>397</v>
+      </c>
+      <c r="G128" t="s">
+        <v>213</v>
+      </c>
+      <c r="H128" t="s">
+        <v>637</v>
+      </c>
+      <c r="I128" t="s">
+        <v>398</v>
+      </c>
+      <c r="J128">
+        <v>104</v>
+      </c>
+      <c r="K128">
+        <v>26.2</v>
+      </c>
+      <c r="L128" t="s">
+        <v>458</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>217</v>
+      </c>
+      <c r="E129">
+        <v>4.3</v>
+      </c>
+      <c r="F129">
+        <v>397</v>
+      </c>
+      <c r="G129" t="s">
+        <v>216</v>
+      </c>
+      <c r="H129" t="s">
+        <v>638</v>
+      </c>
+      <c r="I129" t="s">
+        <v>394</v>
+      </c>
+      <c r="J129">
+        <v>88</v>
+      </c>
+      <c r="K129">
+        <v>22.2</v>
+      </c>
+      <c r="L129" t="s">
+        <v>399</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" t="s">
+        <v>220</v>
+      </c>
+      <c r="E130">
+        <v>4.3</v>
+      </c>
+      <c r="F130">
+        <v>397</v>
+      </c>
+      <c r="G130" t="s">
+        <v>218</v>
+      </c>
+      <c r="H130" t="s">
+        <v>639</v>
+      </c>
+      <c r="I130" t="s">
+        <v>372</v>
+      </c>
+      <c r="J130">
+        <v>54</v>
+      </c>
+      <c r="K130">
+        <v>13.6</v>
+      </c>
+      <c r="L130" t="s">
+        <v>432</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>210</v>
+      </c>
+      <c r="B131" t="s">
+        <v>211</v>
+      </c>
+      <c r="E131">
+        <v>4.3</v>
+      </c>
+      <c r="F131">
+        <v>397</v>
+      </c>
+      <c r="G131" t="s">
+        <v>221</v>
+      </c>
+      <c r="H131" t="s">
+        <v>640</v>
+      </c>
+      <c r="I131" t="s">
+        <v>466</v>
+      </c>
+      <c r="J131">
+        <v>50</v>
+      </c>
+      <c r="K131">
+        <v>12.6</v>
+      </c>
+      <c r="L131" t="s">
+        <v>467</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132">
+        <v>4.3</v>
+      </c>
+      <c r="F132">
+        <v>397</v>
+      </c>
+      <c r="G132" t="s">
+        <v>222</v>
+      </c>
+      <c r="H132" t="s">
+        <v>641</v>
+      </c>
+      <c r="I132" t="s">
+        <v>376</v>
+      </c>
+      <c r="J132">
+        <v>42</v>
+      </c>
+      <c r="K132">
+        <v>10.6</v>
+      </c>
+      <c r="L132" t="s">
+        <v>384</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133">
+        <v>4.3</v>
+      </c>
+      <c r="F133">
+        <v>397</v>
+      </c>
+      <c r="G133" t="s">
+        <v>223</v>
+      </c>
+      <c r="H133" t="s">
+        <v>642</v>
+      </c>
+      <c r="I133" t="s">
+        <v>401</v>
+      </c>
+      <c r="J133">
+        <v>27</v>
+      </c>
+      <c r="K133">
+        <v>6.8</v>
+      </c>
+      <c r="L133" t="s">
+        <v>453</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>211</v>
+      </c>
+      <c r="E134">
+        <v>4.3</v>
+      </c>
+      <c r="F134">
+        <v>397</v>
+      </c>
+      <c r="G134" t="s">
+        <v>224</v>
+      </c>
+      <c r="H134" t="s">
+        <v>643</v>
+      </c>
+      <c r="I134" t="s">
+        <v>385</v>
+      </c>
+      <c r="J134">
+        <v>33</v>
+      </c>
+      <c r="K134">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L134" t="s">
+        <v>408</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" t="s">
+        <v>211</v>
+      </c>
+      <c r="E135">
+        <v>4.3</v>
+      </c>
+      <c r="F135">
+        <v>397</v>
+      </c>
+      <c r="G135" t="s">
+        <v>225</v>
+      </c>
+      <c r="H135" t="s">
+        <v>644</v>
+      </c>
+      <c r="I135" t="s">
+        <v>381</v>
+      </c>
+      <c r="J135">
+        <v>23</v>
+      </c>
+      <c r="K135">
+        <v>5.8</v>
+      </c>
+      <c r="L135" t="s">
+        <v>402</v>
+      </c>
+      <c r="M135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136">
+        <v>4.3</v>
+      </c>
+      <c r="F136">
+        <v>397</v>
+      </c>
+      <c r="G136" t="s">
+        <v>226</v>
+      </c>
+      <c r="H136" t="s">
+        <v>645</v>
+      </c>
+      <c r="I136" t="s">
+        <v>387</v>
+      </c>
+      <c r="J136">
+        <v>30</v>
+      </c>
+      <c r="K136">
+        <v>7.6</v>
+      </c>
+      <c r="L136" t="s">
+        <v>386</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" t="s">
+        <v>211</v>
+      </c>
+      <c r="E137">
+        <v>4.3</v>
+      </c>
+      <c r="F137">
+        <v>397</v>
+      </c>
+      <c r="G137" t="s">
+        <v>227</v>
+      </c>
+      <c r="H137" t="s">
+        <v>646</v>
+      </c>
+      <c r="I137" t="s">
+        <v>383</v>
+      </c>
+      <c r="J137">
+        <v>19</v>
+      </c>
+      <c r="K137">
+        <v>4.8</v>
+      </c>
+      <c r="L137" t="s">
+        <v>402</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138">
+        <v>4.3</v>
+      </c>
+      <c r="F138">
+        <v>397</v>
+      </c>
+      <c r="G138" t="s">
+        <v>228</v>
+      </c>
+      <c r="H138" t="s">
+        <v>647</v>
+      </c>
+      <c r="I138" t="s">
+        <v>410</v>
+      </c>
+      <c r="J138">
+        <v>11</v>
+      </c>
+      <c r="K138">
+        <v>2.8</v>
+      </c>
+      <c r="L138" t="s">
+        <v>408</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139">
+        <v>4.3</v>
+      </c>
+      <c r="F139">
+        <v>397</v>
+      </c>
+      <c r="G139" t="s">
+        <v>230</v>
+      </c>
+      <c r="H139" t="s">
+        <v>649</v>
+      </c>
+      <c r="I139" t="s">
+        <v>468</v>
+      </c>
+      <c r="J139">
+        <v>4</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>391</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140">
+        <v>4.3</v>
+      </c>
+      <c r="F140">
+        <v>397</v>
+      </c>
+      <c r="G140" t="s">
+        <v>231</v>
+      </c>
+      <c r="H140" t="s">
+        <v>650</v>
+      </c>
+      <c r="I140" t="s">
+        <v>392</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>386</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" t="s">
+        <v>211</v>
+      </c>
+      <c r="E141">
+        <v>4.3</v>
+      </c>
+      <c r="F141">
+        <v>397</v>
+      </c>
+      <c r="G141" t="s">
+        <v>233</v>
+      </c>
+      <c r="H141" t="s">
+        <v>652</v>
+      </c>
+      <c r="I141" t="s">
+        <v>442</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>0.3</v>
+      </c>
+      <c r="L141" t="s">
+        <v>386</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" t="s">
+        <v>211</v>
+      </c>
+      <c r="E142">
+        <v>4.3</v>
+      </c>
+      <c r="F142">
+        <v>397</v>
+      </c>
+      <c r="G142" t="s">
+        <v>234</v>
+      </c>
+      <c r="H142" t="s">
+        <v>653</v>
+      </c>
+      <c r="I142" t="s">
+        <v>469</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>0.3</v>
+      </c>
+      <c r="L142" t="s">
+        <v>386</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143">
+        <v>4.3</v>
+      </c>
+      <c r="F143">
+        <v>397</v>
+      </c>
+      <c r="G143" t="s">
+        <v>236</v>
+      </c>
+      <c r="H143" t="s">
+        <v>655</v>
+      </c>
+      <c r="I143" t="s">
+        <v>471</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>0.3</v>
+      </c>
+      <c r="L143" t="s">
+        <v>386</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>210</v>
+      </c>
+      <c r="H144" t="s">
+        <v>656</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" t="s">
+        <v>296</v>
+      </c>
+      <c r="D145" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F145">
+        <v>1219</v>
+      </c>
+      <c r="G145" t="s">
+        <v>295</v>
+      </c>
+      <c r="H145" t="s">
+        <v>657</v>
+      </c>
+      <c r="I145" t="s">
+        <v>372</v>
+      </c>
+      <c r="J145">
+        <v>227</v>
+      </c>
+      <c r="K145">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L145" t="s">
+        <v>476</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F146">
+        <v>1219</v>
+      </c>
+      <c r="G146" t="s">
+        <v>297</v>
+      </c>
+      <c r="H146" t="s">
+        <v>658</v>
+      </c>
+      <c r="I146" t="s">
+        <v>374</v>
+      </c>
+      <c r="J146">
+        <v>164</v>
+      </c>
+      <c r="K146">
+        <v>13.5</v>
+      </c>
+      <c r="L146" t="s">
+        <v>426</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" t="s">
+        <v>299</v>
+      </c>
+      <c r="E147">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F147">
+        <v>1219</v>
+      </c>
+      <c r="G147" t="s">
+        <v>298</v>
+      </c>
+      <c r="H147" t="s">
+        <v>659</v>
+      </c>
+      <c r="I147" t="s">
+        <v>415</v>
+      </c>
+      <c r="J147">
+        <v>170</v>
+      </c>
+      <c r="K147">
+        <v>13.9</v>
+      </c>
+      <c r="L147" t="s">
+        <v>375</v>
+      </c>
+      <c r="M147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="E148">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F148">
+        <v>1219</v>
+      </c>
+      <c r="G148" t="s">
+        <v>301</v>
+      </c>
+      <c r="H148" t="s">
+        <v>661</v>
+      </c>
+      <c r="I148" t="s">
+        <v>377</v>
+      </c>
+      <c r="J148">
+        <v>155</v>
+      </c>
+      <c r="K148">
+        <v>12.7</v>
+      </c>
+      <c r="L148" t="s">
+        <v>478</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+      <c r="E149">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F149">
+        <v>1219</v>
+      </c>
+      <c r="G149" t="s">
+        <v>302</v>
+      </c>
+      <c r="H149" t="s">
+        <v>662</v>
+      </c>
+      <c r="I149" t="s">
+        <v>396</v>
+      </c>
+      <c r="J149">
+        <v>114</v>
+      </c>
+      <c r="K149">
+        <v>9.4</v>
+      </c>
+      <c r="L149" t="s">
+        <v>479</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" t="s">
+        <v>293</v>
+      </c>
+      <c r="E150">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F150">
+        <v>1219</v>
+      </c>
+      <c r="G150" t="s">
+        <v>303</v>
+      </c>
+      <c r="H150" t="s">
+        <v>663</v>
+      </c>
+      <c r="I150" t="s">
+        <v>403</v>
+      </c>
+      <c r="J150">
+        <v>140</v>
+      </c>
+      <c r="K150">
+        <v>11.5</v>
+      </c>
+      <c r="L150" t="s">
+        <v>420</v>
+      </c>
+      <c r="M150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" t="s">
+        <v>293</v>
+      </c>
+      <c r="E151">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F151">
+        <v>1219</v>
+      </c>
+      <c r="G151" t="s">
+        <v>305</v>
+      </c>
+      <c r="H151" t="s">
+        <v>665</v>
+      </c>
+      <c r="I151" t="s">
+        <v>385</v>
+      </c>
+      <c r="J151">
+        <v>108</v>
+      </c>
+      <c r="K151">
+        <v>8.9</v>
+      </c>
+      <c r="L151" t="s">
+        <v>405</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="E152">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F152">
+        <v>1219</v>
+      </c>
+      <c r="G152" t="s">
+        <v>306</v>
+      </c>
+      <c r="H152" t="s">
+        <v>666</v>
+      </c>
+      <c r="I152" t="s">
+        <v>387</v>
+      </c>
+      <c r="J152">
+        <v>47</v>
+      </c>
+      <c r="K152">
+        <v>3.9</v>
+      </c>
+      <c r="L152" t="s">
+        <v>408</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>292</v>
+      </c>
+      <c r="B153" t="s">
+        <v>293</v>
+      </c>
+      <c r="E153">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F153">
+        <v>1219</v>
+      </c>
+      <c r="G153" t="s">
+        <v>307</v>
+      </c>
+      <c r="H153" t="s">
+        <v>667</v>
+      </c>
+      <c r="I153" t="s">
+        <v>430</v>
+      </c>
+      <c r="J153">
+        <v>35</v>
+      </c>
+      <c r="K153">
+        <v>2.9</v>
+      </c>
+      <c r="L153" t="s">
+        <v>431</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" t="s">
+        <v>293</v>
+      </c>
+      <c r="E154">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F154">
+        <v>1219</v>
+      </c>
+      <c r="G154" t="s">
+        <v>308</v>
+      </c>
+      <c r="H154" t="s">
+        <v>668</v>
+      </c>
+      <c r="I154" t="s">
+        <v>410</v>
+      </c>
+      <c r="J154">
+        <v>32</v>
+      </c>
+      <c r="K154">
+        <v>2.6</v>
+      </c>
+      <c r="L154" t="s">
+        <v>436</v>
+      </c>
+      <c r="M154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>292</v>
+      </c>
+      <c r="B155" t="s">
+        <v>293</v>
+      </c>
+      <c r="E155">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F155">
+        <v>1219</v>
+      </c>
+      <c r="G155" t="s">
+        <v>309</v>
+      </c>
+      <c r="H155" t="s">
+        <v>669</v>
+      </c>
+      <c r="I155" t="s">
+        <v>409</v>
+      </c>
+      <c r="J155">
+        <v>20</v>
+      </c>
+      <c r="K155">
+        <v>1.6</v>
+      </c>
+      <c r="L155" t="s">
+        <v>452</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>292</v>
+      </c>
+      <c r="H156" t="s">
+        <v>670</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>292</v>
+      </c>
+      <c r="H157" t="s">
+        <v>671</v>
+      </c>
+      <c r="M157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
+      <c r="H158" t="s">
+        <v>673</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>292</v>
+      </c>
+      <c r="H159" t="s">
+        <v>674</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>292</v>
+      </c>
+      <c r="H160" t="s">
+        <v>675</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>292</v>
+      </c>
+      <c r="H161" t="s">
+        <v>676</v>
+      </c>
+      <c r="M161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
+        <v>219</v>
+      </c>
+      <c r="D162" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162">
+        <v>4.3</v>
+      </c>
+      <c r="F162">
+        <v>444</v>
+      </c>
+      <c r="G162" t="s">
+        <v>349</v>
+      </c>
+      <c r="H162" t="s">
+        <v>677</v>
+      </c>
+      <c r="I162" t="s">
+        <v>370</v>
+      </c>
+      <c r="J162">
+        <v>99</v>
+      </c>
+      <c r="K162">
+        <v>22.3</v>
+      </c>
+      <c r="L162" t="s">
+        <v>393</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>350</v>
+      </c>
+      <c r="E163">
+        <v>4.3</v>
+      </c>
+      <c r="F163">
+        <v>444</v>
+      </c>
+      <c r="G163" t="s">
+        <v>351</v>
+      </c>
+      <c r="H163" t="s">
+        <v>638</v>
+      </c>
+      <c r="I163" t="s">
+        <v>394</v>
+      </c>
+      <c r="J163">
+        <v>106</v>
+      </c>
+      <c r="K163">
+        <v>23.9</v>
+      </c>
+      <c r="L163" t="s">
+        <v>478</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>346</v>
+      </c>
+      <c r="B164" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" t="s">
+        <v>353</v>
+      </c>
+      <c r="D164" t="s">
+        <v>350</v>
+      </c>
+      <c r="E164">
+        <v>4.3</v>
+      </c>
+      <c r="F164">
+        <v>444</v>
+      </c>
+      <c r="G164" t="s">
+        <v>352</v>
+      </c>
+      <c r="H164" t="s">
+        <v>640</v>
+      </c>
+      <c r="I164" t="s">
+        <v>372</v>
+      </c>
+      <c r="J164">
+        <v>64</v>
+      </c>
+      <c r="K164">
+        <v>14.4</v>
+      </c>
+      <c r="L164" t="s">
+        <v>384</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" t="s">
+        <v>347</v>
+      </c>
+      <c r="E165">
+        <v>4.3</v>
+      </c>
+      <c r="F165">
+        <v>444</v>
+      </c>
+      <c r="G165" t="s">
+        <v>354</v>
+      </c>
+      <c r="H165" t="s">
+        <v>643</v>
+      </c>
+      <c r="I165" t="s">
+        <v>379</v>
+      </c>
+      <c r="J165">
+        <v>72</v>
+      </c>
+      <c r="K165">
+        <v>16.2</v>
+      </c>
+      <c r="L165" t="s">
+        <v>473</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
+      </c>
+      <c r="E166">
+        <v>4.3</v>
+      </c>
+      <c r="F166">
+        <v>444</v>
+      </c>
+      <c r="G166" t="s">
+        <v>355</v>
+      </c>
+      <c r="H166" t="s">
+        <v>644</v>
+      </c>
+      <c r="I166" t="s">
+        <v>376</v>
+      </c>
+      <c r="J166">
+        <v>40</v>
+      </c>
+      <c r="K166">
+        <v>9</v>
+      </c>
+      <c r="L166" t="s">
+        <v>438</v>
+      </c>
+      <c r="M166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>346</v>
+      </c>
+      <c r="B167" t="s">
+        <v>347</v>
+      </c>
+      <c r="E167">
+        <v>4.3</v>
+      </c>
+      <c r="F167">
+        <v>444</v>
+      </c>
+      <c r="G167" t="s">
+        <v>356</v>
+      </c>
+      <c r="H167" t="s">
+        <v>645</v>
+      </c>
+      <c r="I167" t="s">
+        <v>381</v>
+      </c>
+      <c r="J167">
+        <v>33</v>
+      </c>
+      <c r="K167">
+        <v>7.4</v>
+      </c>
+      <c r="L167" t="s">
+        <v>453</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" t="s">
+        <v>347</v>
+      </c>
+      <c r="E168">
+        <v>4.3</v>
+      </c>
+      <c r="F168">
+        <v>444</v>
+      </c>
+      <c r="G168" t="s">
+        <v>357</v>
+      </c>
+      <c r="H168" t="s">
+        <v>678</v>
+      </c>
+      <c r="I168" t="s">
+        <v>377</v>
+      </c>
+      <c r="J168">
+        <v>48</v>
+      </c>
+      <c r="K168">
+        <v>10.8</v>
+      </c>
+      <c r="L168" t="s">
+        <v>443</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>346</v>
+      </c>
+      <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="E169">
+        <v>4.3</v>
+      </c>
+      <c r="F169">
+        <v>444</v>
+      </c>
+      <c r="G169" t="s">
+        <v>359</v>
+      </c>
+      <c r="H169" t="s">
+        <v>679</v>
+      </c>
+      <c r="I169" t="s">
+        <v>385</v>
+      </c>
+      <c r="J169">
+        <v>27</v>
+      </c>
+      <c r="K169">
+        <v>6.1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>405</v>
+      </c>
+      <c r="M169">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
+        <v>347</v>
+      </c>
+      <c r="E170">
+        <v>4.3</v>
+      </c>
+      <c r="F170">
+        <v>444</v>
+      </c>
+      <c r="G170" t="s">
+        <v>360</v>
+      </c>
+      <c r="H170" t="s">
+        <v>649</v>
+      </c>
+      <c r="I170" t="s">
+        <v>403</v>
+      </c>
+      <c r="J170">
+        <v>25</v>
+      </c>
+      <c r="K170">
+        <v>5.6</v>
+      </c>
+      <c r="L170" t="s">
+        <v>400</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" t="s">
+        <v>347</v>
+      </c>
+      <c r="E171">
+        <v>4.3</v>
+      </c>
+      <c r="F171">
+        <v>444</v>
+      </c>
+      <c r="G171" t="s">
+        <v>361</v>
+      </c>
+      <c r="H171" t="s">
+        <v>680</v>
+      </c>
+      <c r="I171" t="s">
+        <v>410</v>
+      </c>
+      <c r="J171">
+        <v>16</v>
+      </c>
+      <c r="K171">
+        <v>3.6</v>
+      </c>
+      <c r="L171" t="s">
+        <v>386</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>346</v>
+      </c>
+      <c r="B172" t="s">
+        <v>347</v>
+      </c>
+      <c r="E172">
+        <v>4.3</v>
+      </c>
+      <c r="F172">
+        <v>444</v>
+      </c>
+      <c r="G172" t="s">
+        <v>362</v>
+      </c>
+      <c r="H172" t="s">
+        <v>681</v>
+      </c>
+      <c r="I172" t="s">
+        <v>392</v>
+      </c>
+      <c r="J172">
+        <v>10</v>
+      </c>
+      <c r="K172">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L172" t="s">
+        <v>431</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" t="s">
+        <v>347</v>
+      </c>
+      <c r="E173">
+        <v>4.3</v>
+      </c>
+      <c r="F173">
+        <v>444</v>
+      </c>
+      <c r="G173" t="s">
+        <v>363</v>
+      </c>
+      <c r="H173" t="s">
+        <v>682</v>
+      </c>
+      <c r="I173" t="s">
+        <v>390</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="K173">
+        <v>0.7</v>
+      </c>
+      <c r="L173" t="s">
+        <v>426</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+      <c r="E174">
+        <v>4.3</v>
+      </c>
+      <c r="F174">
+        <v>444</v>
+      </c>
+      <c r="G174" t="s">
+        <v>364</v>
+      </c>
+      <c r="H174" t="s">
+        <v>683</v>
+      </c>
+      <c r="I174" t="s">
+        <v>468</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>0.2</v>
+      </c>
+      <c r="L174" t="s">
+        <v>386</v>
+      </c>
+      <c r="M174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>346</v>
+      </c>
+      <c r="H175" t="s">
+        <v>652</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="H176" t="s">
+        <v>653</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>346</v>
+      </c>
+      <c r="H177" t="s">
+        <v>684</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>346</v>
+      </c>
+      <c r="H178" t="s">
+        <v>685</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>346</v>
+      </c>
+      <c r="H179" t="s">
+        <v>655</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P179"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -21771,7 +27079,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -21780,7 +27088,7 @@
       <c r="H1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>366</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -21792,11 +27100,20 @@
       <c r="L1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -21836,8 +27153,14 @@
       <c r="M2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>82</v>
+      </c>
+      <c r="P2">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -21871,8 +27194,14 @@
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>99</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -21906,8 +27235,14 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>78</v>
+      </c>
+      <c r="P4">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -21941,8 +27276,14 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>74</v>
+      </c>
+      <c r="P5">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -21976,8 +27317,14 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>97</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -22011,8 +27358,14 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>57</v>
+      </c>
+      <c r="P7">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -22046,8 +27399,14 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>89</v>
+      </c>
+      <c r="P8">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -22081,8 +27440,14 @@
       <c r="M9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>97</v>
+      </c>
+      <c r="P9">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -22116,8 +27481,14 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>89</v>
+      </c>
+      <c r="P10">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -22151,8 +27522,14 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <v>88</v>
+      </c>
+      <c r="P11">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -22186,8 +27563,11 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -22221,8 +27601,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -22256,8 +27639,11 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -22291,8 +27677,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -22326,8 +27715,11 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -22361,8 +27753,11 @@
       <c r="M17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -22396,8 +27791,11 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -22431,8 +27829,11 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -22466,8 +27867,14 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
       <c r="H21" t="s">
         <v>516</v>
       </c>
@@ -22475,7 +27882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>329</v>
       </c>
@@ -22515,8 +27922,14 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>84</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>329</v>
       </c>
@@ -22550,8 +27963,14 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23">
+        <v>94</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -22585,8 +28004,14 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24">
+        <v>94</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>329</v>
       </c>
@@ -22620,8 +28045,14 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N25">
+        <v>54</v>
+      </c>
+      <c r="P25">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>329</v>
       </c>
@@ -22655,8 +28086,14 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26">
+        <v>69</v>
+      </c>
+      <c r="P26">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>329</v>
       </c>
@@ -22690,8 +28127,14 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N27">
+        <v>90</v>
+      </c>
+      <c r="P27">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>329</v>
       </c>
@@ -22725,8 +28168,14 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O28">
+        <v>52</v>
+      </c>
+      <c r="P28">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -22760,8 +28209,14 @@
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N29">
+        <v>70</v>
+      </c>
+      <c r="P29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -22795,8 +28250,14 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N30">
+        <v>96</v>
+      </c>
+      <c r="P30">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>329</v>
       </c>
@@ -22830,8 +28291,11 @@
       <c r="M31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>329</v>
       </c>
@@ -22865,8 +28329,14 @@
       <c r="M32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>329</v>
+      </c>
       <c r="H33" t="s">
         <v>530</v>
       </c>
@@ -22874,7 +28344,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>329</v>
+      </c>
       <c r="H34" t="s">
         <v>531</v>
       </c>
@@ -22882,7 +28355,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>329</v>
+      </c>
       <c r="H35" t="s">
         <v>532</v>
       </c>
@@ -22890,7 +28366,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>329</v>
+      </c>
       <c r="H36" t="s">
         <v>533</v>
       </c>
@@ -22898,7 +28377,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>329</v>
+      </c>
       <c r="H37" t="s">
         <v>535</v>
       </c>
@@ -22906,7 +28388,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>329</v>
+      </c>
       <c r="H38" t="s">
         <v>536</v>
       </c>
@@ -22914,7 +28399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -22954,8 +28439,14 @@
       <c r="M39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N39">
+        <v>97</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -22995,8 +28486,14 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N40">
+        <v>92</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -23030,8 +28527,14 @@
       <c r="M41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N41">
+        <v>81</v>
+      </c>
+      <c r="P41">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -23065,8 +28568,14 @@
       <c r="M42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N42">
+        <v>79</v>
+      </c>
+      <c r="P42">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -23100,8 +28609,14 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N43">
+        <v>93</v>
+      </c>
+      <c r="P43">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -23135,8 +28650,14 @@
       <c r="M44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N44">
+        <v>90</v>
+      </c>
+      <c r="P44">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -23170,8 +28691,14 @@
       <c r="M45">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N45">
+        <v>61</v>
+      </c>
+      <c r="P45">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -23205,8 +28732,14 @@
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N46">
+        <v>98</v>
+      </c>
+      <c r="P46">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -23240,8 +28773,11 @@
       <c r="M47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N47">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -23275,8 +28811,14 @@
       <c r="M48">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N48">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
       <c r="H49" t="s">
         <v>550</v>
       </c>
@@ -23284,7 +28826,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
       <c r="H50" t="s">
         <v>552</v>
       </c>
@@ -23292,7 +28837,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
       <c r="H51" t="s">
         <v>553</v>
       </c>
@@ -23300,7 +28848,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
       <c r="H52" t="s">
         <v>554</v>
       </c>
@@ -23308,7 +28859,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
       <c r="H53" t="s">
         <v>555</v>
       </c>
@@ -23316,7 +28870,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
       <c r="H54" t="s">
         <v>556</v>
       </c>
@@ -23324,7 +28881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>310</v>
       </c>
@@ -23364,8 +28921,14 @@
       <c r="M55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N55">
+        <v>99</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>310</v>
       </c>
@@ -23399,8 +28962,14 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N56">
+        <v>92</v>
+      </c>
+      <c r="P56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>310</v>
       </c>
@@ -23434,8 +29003,14 @@
       <c r="M57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N57">
+        <v>88</v>
+      </c>
+      <c r="P57">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>310</v>
       </c>
@@ -23469,8 +29044,14 @@
       <c r="M58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N58">
+        <v>82</v>
+      </c>
+      <c r="P58">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>310</v>
       </c>
@@ -23504,8 +29085,14 @@
       <c r="M59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N59">
+        <v>96</v>
+      </c>
+      <c r="P59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>310</v>
       </c>
@@ -23539,8 +29126,14 @@
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N60">
+        <v>81</v>
+      </c>
+      <c r="P60">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>310</v>
       </c>
@@ -23574,8 +29167,14 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N61">
+        <v>98</v>
+      </c>
+      <c r="P61">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -23609,8 +29208,14 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N62">
+        <v>98</v>
+      </c>
+      <c r="P62">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>310</v>
       </c>
@@ -23644,8 +29249,14 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N63">
+        <v>55</v>
+      </c>
+      <c r="P63">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>310</v>
       </c>
@@ -23679,8 +29290,14 @@
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N64">
+        <v>91</v>
+      </c>
+      <c r="P64">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>310</v>
       </c>
@@ -23714,8 +29331,11 @@
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>310</v>
       </c>
@@ -23749,8 +29369,11 @@
       <c r="M66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N66">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>310</v>
       </c>
@@ -23784,8 +29407,11 @@
       <c r="M67">
         <v>-1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>310</v>
       </c>
@@ -23819,8 +29445,14 @@
       <c r="M68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
       <c r="H69" t="s">
         <v>571</v>
       </c>
@@ -23828,7 +29460,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>310</v>
+      </c>
       <c r="H70" t="s">
         <v>572</v>
       </c>
@@ -23836,7 +29471,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>310</v>
+      </c>
       <c r="H71" t="s">
         <v>573</v>
       </c>
@@ -23844,7 +29482,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>310</v>
+      </c>
       <c r="H72" t="s">
         <v>574</v>
       </c>
@@ -23852,7 +29493,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>310</v>
+      </c>
       <c r="H73" t="s">
         <v>575</v>
       </c>
@@ -23860,7 +29504,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>310</v>
+      </c>
       <c r="H74" t="s">
         <v>576</v>
       </c>
@@ -23868,7 +29515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>172</v>
       </c>
@@ -23908,8 +29555,14 @@
       <c r="M75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N75">
+        <v>91</v>
+      </c>
+      <c r="P75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -23949,8 +29602,14 @@
       <c r="M76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N76">
+        <v>90</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -23990,8 +29649,14 @@
       <c r="M77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N77">
+        <v>77</v>
+      </c>
+      <c r="P77">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -24025,8 +29690,14 @@
       <c r="M78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N78">
+        <v>92</v>
+      </c>
+      <c r="P78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -24060,8 +29731,14 @@
       <c r="M79">
         <v>-1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N79">
+        <v>72</v>
+      </c>
+      <c r="P79">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -24095,8 +29772,14 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N80">
+        <v>91</v>
+      </c>
+      <c r="P80">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -24130,8 +29813,14 @@
       <c r="M81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N81">
+        <v>96</v>
+      </c>
+      <c r="P81">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -24165,8 +29854,14 @@
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N82">
+        <v>60</v>
+      </c>
+      <c r="P82">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -24200,8 +29895,14 @@
       <c r="M83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N83">
+        <v>95</v>
+      </c>
+      <c r="P83">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -24235,8 +29936,11 @@
       <c r="M84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -24270,8 +29974,11 @@
       <c r="M85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N85">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -24305,8 +30012,14 @@
       <c r="M86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
       <c r="H87" t="s">
         <v>591</v>
       </c>
@@ -24314,7 +30027,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
       <c r="H88" t="s">
         <v>592</v>
       </c>
@@ -24322,7 +30038,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
       <c r="H89" t="s">
         <v>593</v>
       </c>
@@ -24330,7 +30049,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
       <c r="H90" t="s">
         <v>594</v>
       </c>
@@ -24338,7 +30060,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
       <c r="H91" t="s">
         <v>595</v>
       </c>
@@ -24346,7 +30071,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>172</v>
+      </c>
       <c r="H92" t="s">
         <v>596</v>
       </c>
@@ -24354,7 +30082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -24394,8 +30122,14 @@
       <c r="M93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N93">
+        <v>95</v>
+      </c>
+      <c r="P93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -24435,8 +30169,14 @@
       <c r="M94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N94">
+        <v>87</v>
+      </c>
+      <c r="P94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -24476,8 +30216,14 @@
       <c r="M95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N95">
+        <v>80</v>
+      </c>
+      <c r="P95">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -24511,8 +30257,14 @@
       <c r="M96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N96">
+        <v>87</v>
+      </c>
+      <c r="P96">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -24546,8 +30298,14 @@
       <c r="M97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N97">
+        <v>59</v>
+      </c>
+      <c r="P97">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -24581,8 +30339,14 @@
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N98">
+        <v>57</v>
+      </c>
+      <c r="P98">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -24616,8 +30380,14 @@
       <c r="M99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N99">
+        <v>85</v>
+      </c>
+      <c r="P99">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -24651,8 +30421,14 @@
       <c r="M100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N100">
+        <v>82</v>
+      </c>
+      <c r="P100">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -24686,8 +30462,14 @@
       <c r="M101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N101">
+        <v>100</v>
+      </c>
+      <c r="P101">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -24721,8 +30503,11 @@
       <c r="M102">
         <v>-1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N102">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -24756,8 +30541,11 @@
       <c r="M103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -24791,8 +30579,11 @@
       <c r="M104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N104">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -24826,8 +30617,14 @@
       <c r="M105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
       <c r="H106" t="s">
         <v>610</v>
       </c>
@@ -24835,7 +30632,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
       <c r="H107" t="s">
         <v>611</v>
       </c>
@@ -24843,7 +30643,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
       <c r="H108" t="s">
         <v>612</v>
       </c>
@@ -24851,7 +30654,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
       <c r="H109" t="s">
         <v>613</v>
       </c>
@@ -24859,7 +30665,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
       <c r="H110" t="s">
         <v>614</v>
       </c>
@@ -24867,7 +30676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -24907,8 +30716,14 @@
       <c r="M111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N111">
+        <v>65</v>
+      </c>
+      <c r="P111">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -24948,8 +30763,14 @@
       <c r="M112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N112">
+        <v>88</v>
+      </c>
+      <c r="P112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -24983,8 +30804,14 @@
       <c r="M113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O113">
+        <v>51</v>
+      </c>
+      <c r="P113">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>52</v>
       </c>
@@ -25018,8 +30845,14 @@
       <c r="M114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N114">
+        <v>63</v>
+      </c>
+      <c r="P114">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>52</v>
       </c>
@@ -25053,8 +30886,14 @@
       <c r="M115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O115">
+        <v>83</v>
+      </c>
+      <c r="P115">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>52</v>
       </c>
@@ -25088,8 +30927,14 @@
       <c r="M116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N116">
+        <v>82</v>
+      </c>
+      <c r="P116">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>52</v>
       </c>
@@ -25123,8 +30968,14 @@
       <c r="M117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N117">
+        <v>94</v>
+      </c>
+      <c r="P117">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -25158,8 +31009,14 @@
       <c r="M118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N118">
+        <v>100</v>
+      </c>
+      <c r="P118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>52</v>
       </c>
@@ -25193,8 +31050,14 @@
       <c r="M119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O119">
+        <v>62</v>
+      </c>
+      <c r="P119">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -25228,8 +31091,11 @@
       <c r="M120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O120">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>52</v>
       </c>
@@ -25263,8 +31129,14 @@
       <c r="M121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N121">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>52</v>
+      </c>
       <c r="H122" t="s">
         <v>631</v>
       </c>
@@ -25272,7 +31144,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>52</v>
+      </c>
       <c r="H123" t="s">
         <v>632</v>
       </c>
@@ -25280,7 +31155,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>52</v>
+      </c>
       <c r="H124" t="s">
         <v>633</v>
       </c>
@@ -25288,7 +31166,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
       <c r="H125" t="s">
         <v>634</v>
       </c>
@@ -25296,7 +31177,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
       <c r="H126" t="s">
         <v>635</v>
       </c>
@@ -25304,7 +31188,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>52</v>
+      </c>
       <c r="H127" t="s">
         <v>636</v>
       </c>
@@ -25312,7 +31199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -25352,8 +31239,14 @@
       <c r="M128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N128">
+        <v>60</v>
+      </c>
+      <c r="P128">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>210</v>
       </c>
@@ -25393,8 +31286,14 @@
       <c r="M129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N129">
+        <v>53</v>
+      </c>
+      <c r="P129">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>210</v>
       </c>
@@ -25434,8 +31333,14 @@
       <c r="M130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N130">
+        <v>79</v>
+      </c>
+      <c r="P130">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>210</v>
       </c>
@@ -25469,8 +31374,14 @@
       <c r="M131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O131">
+        <v>74</v>
+      </c>
+      <c r="P131">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>210</v>
       </c>
@@ -25504,8 +31415,14 @@
       <c r="M132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N132">
+        <v>82</v>
+      </c>
+      <c r="P132">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>210</v>
       </c>
@@ -25539,8 +31456,14 @@
       <c r="M133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N133">
+        <v>69</v>
+      </c>
+      <c r="P133">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>210</v>
       </c>
@@ -25574,8 +31497,14 @@
       <c r="M134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N134">
+        <v>92</v>
+      </c>
+      <c r="P134">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>210</v>
       </c>
@@ -25609,8 +31538,14 @@
       <c r="M135">
         <v>-1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N135">
+        <v>70</v>
+      </c>
+      <c r="P135">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>210</v>
       </c>
@@ -25644,8 +31579,14 @@
       <c r="M136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N136">
+        <v>100</v>
+      </c>
+      <c r="P136">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>210</v>
       </c>
@@ -25679,8 +31620,14 @@
       <c r="M137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N137">
+        <v>70</v>
+      </c>
+      <c r="P137">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>210</v>
       </c>
@@ -25714,8 +31661,11 @@
       <c r="M138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N138">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>210</v>
       </c>
@@ -25749,8 +31699,11 @@
       <c r="M139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N139">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>210</v>
       </c>
@@ -25784,8 +31737,11 @@
       <c r="M140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>210</v>
       </c>
@@ -25819,8 +31775,11 @@
       <c r="M141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>210</v>
       </c>
@@ -25854,8 +31813,11 @@
       <c r="M142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>210</v>
       </c>
@@ -25889,8 +31851,14 @@
       <c r="M143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>210</v>
+      </c>
       <c r="H144" t="s">
         <v>656</v>
       </c>
@@ -25898,7 +31866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>292</v>
       </c>
@@ -25938,8 +31906,14 @@
       <c r="M145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N145">
+        <v>71</v>
+      </c>
+      <c r="P145">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>292</v>
       </c>
@@ -25979,8 +31953,14 @@
       <c r="M146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N146">
+        <v>67</v>
+      </c>
+      <c r="P146">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -26020,8 +32000,14 @@
       <c r="M147">
         <v>-1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N147">
+        <v>80</v>
+      </c>
+      <c r="P147">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -26055,8 +32041,14 @@
       <c r="M148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N148">
+        <v>64</v>
+      </c>
+      <c r="P148">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>292</v>
       </c>
@@ -26090,8 +32082,14 @@
       <c r="M149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O149">
+        <v>80</v>
+      </c>
+      <c r="P149">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -26125,8 +32123,14 @@
       <c r="M150">
         <v>-1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O150">
+        <v>62</v>
+      </c>
+      <c r="P150">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>292</v>
       </c>
@@ -26160,8 +32164,14 @@
       <c r="M151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N151">
+        <v>96</v>
+      </c>
+      <c r="P151">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>292</v>
       </c>
@@ -26195,8 +32205,11 @@
       <c r="M152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N152">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>292</v>
       </c>
@@ -26230,8 +32243,11 @@
       <c r="M153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N153">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>292</v>
       </c>
@@ -26265,8 +32281,11 @@
       <c r="M154">
         <v>-1</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N154">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>292</v>
       </c>
@@ -26300,8 +32319,14 @@
       <c r="M155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N155">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>292</v>
+      </c>
       <c r="H156" t="s">
         <v>670</v>
       </c>
@@ -26309,7 +32334,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>292</v>
+      </c>
       <c r="H157" t="s">
         <v>671</v>
       </c>
@@ -26317,7 +32345,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
       <c r="H158" t="s">
         <v>673</v>
       </c>
@@ -26325,7 +32356,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>292</v>
+      </c>
       <c r="H159" t="s">
         <v>674</v>
       </c>
@@ -26333,7 +32367,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>292</v>
+      </c>
       <c r="H160" t="s">
         <v>675</v>
       </c>
@@ -26341,7 +32378,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>292</v>
+      </c>
       <c r="H161" t="s">
         <v>676</v>
       </c>
@@ -26349,7 +32389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>346</v>
       </c>
@@ -26389,8 +32429,14 @@
       <c r="M162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N162">
+        <v>76</v>
+      </c>
+      <c r="P162">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>346</v>
       </c>
@@ -26430,8 +32476,14 @@
       <c r="M163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N163">
+        <v>64</v>
+      </c>
+      <c r="P163">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>346</v>
       </c>
@@ -26471,8 +32523,14 @@
       <c r="M164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N164">
+        <v>82</v>
+      </c>
+      <c r="P164">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>346</v>
       </c>
@@ -26506,8 +32564,14 @@
       <c r="M165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O165">
+        <v>57</v>
+      </c>
+      <c r="P165">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>346</v>
       </c>
@@ -26541,8 +32605,14 @@
       <c r="M166">
         <v>-1</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N166">
+        <v>78</v>
+      </c>
+      <c r="P166">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>346</v>
       </c>
@@ -26576,8 +32646,14 @@
       <c r="M167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N167">
+        <v>69</v>
+      </c>
+      <c r="P167">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>346</v>
       </c>
@@ -26611,8 +32687,14 @@
       <c r="M168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O168">
+        <v>50</v>
+      </c>
+      <c r="P168">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>346</v>
       </c>
@@ -26646,8 +32728,14 @@
       <c r="M169">
         <v>-1</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N169">
+        <v>96</v>
+      </c>
+      <c r="P169">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -26681,8 +32769,14 @@
       <c r="M170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N170">
+        <v>56</v>
+      </c>
+      <c r="P170">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>346</v>
       </c>
@@ -26716,8 +32810,11 @@
       <c r="M171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>346</v>
       </c>
@@ -26751,8 +32848,11 @@
       <c r="M172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N172">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>346</v>
       </c>
@@ -26786,8 +32886,11 @@
       <c r="M173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N173">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -26821,8 +32924,14 @@
       <c r="M174">
         <v>-1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>346</v>
+      </c>
       <c r="H175" t="s">
         <v>652</v>
       </c>
@@ -26830,7 +32939,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>346</v>
+      </c>
       <c r="H176" t="s">
         <v>653</v>
       </c>
@@ -26838,7 +32950,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>346</v>
+      </c>
       <c r="H177" t="s">
         <v>684</v>
       </c>
@@ -26846,7 +32961,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>346</v>
+      </c>
       <c r="H178" t="s">
         <v>685</v>
       </c>
@@ -26854,12 +32972,214 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>346</v>
+      </c>
       <c r="H179" t="s">
         <v>655</v>
       </c>
       <c r="M179">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2">
+        <v>4.7</v>
+      </c>
+      <c r="D2">
+        <v>627</v>
+      </c>
+      <c r="E2">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G2">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H2">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I2">
+        <v>4.3689873612815404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D3">
+        <v>6450</v>
+      </c>
+      <c r="E3">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G3">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H3">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I3">
+        <v>4.3329105263157892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D4">
+        <v>380</v>
+      </c>
+      <c r="E4">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4.3211411142421037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>317</v>
+      </c>
+      <c r="E5">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H5">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I5">
+        <v>4.221869318824524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D6">
+        <v>461</v>
+      </c>
+      <c r="E6">
+        <v>3.78</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.1355648910817386</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4.1534495645514236</v>
       </c>
     </row>
   </sheetData>

--- a/results/double_strollers_All.xlsx
+++ b/results/double_strollers_All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deank\Passive_Income\Best_Reviews__Blog\Scraper\Google_Shopping_Scraper\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866AB192-2319-4BE8-8DE4-9D041CECD8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E36421-B2B0-4E3D-8D33-60C0C4E9505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="37900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2680" windowWidth="16200" windowHeight="27970" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5671" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="693">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -27053,14 +27053,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.36328125" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -27088,25 +27091,25 @@
       <c r="H1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>366</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>369</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>688</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -32990,25 +32993,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>489</v>
       </c>
@@ -33036,37 +33032,64 @@
       <c r="I1" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D2">
-        <v>627</v>
+        <v>6450</v>
       </c>
       <c r="E2">
-        <v>4.5579999999999998</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="F2">
-        <v>0.8571428571428571</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="G2">
-        <v>6.4425401664681976</v>
+        <v>8.7719904365322421</v>
       </c>
       <c r="H2">
-        <v>4.2857142857142856</v>
+        <v>3.4210526315789469</v>
       </c>
       <c r="I2">
-        <v>4.3689873612815404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>384</v>
+      </c>
+      <c r="N2">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -33092,94 +33115,2601 @@
         <v>3.4210526315789469</v>
       </c>
       <c r="I3">
-        <v>4.3329105263157892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K3">
+        <v>21.2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>437</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <v>4.5999999999999996</v>
       </c>
       <c r="D4">
-        <v>380</v>
+        <v>6450</v>
       </c>
       <c r="E4">
-        <v>4.2122222222222216</v>
+        <v>4.2290000000000001</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="G4">
-        <v>5.9427993751267012</v>
+        <v>8.7719904365322421</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3.4210526315789469</v>
       </c>
       <c r="I4">
-        <v>4.3211411142421037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4.41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4">
+        <v>11.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>438</v>
+      </c>
+      <c r="N4">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>4.5999999999999996</v>
       </c>
       <c r="D5">
+        <v>6450</v>
+      </c>
+      <c r="E5">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G5">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H5">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I5">
+        <v>4.41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>411</v>
+      </c>
+      <c r="N5">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6">
+        <v>6450</v>
+      </c>
+      <c r="E6">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G6">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H6">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I6">
+        <v>4.41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7">
+        <v>6450</v>
+      </c>
+      <c r="E7">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G7">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H7">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I7">
+        <v>4.41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K7">
+        <v>10.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>380</v>
+      </c>
+      <c r="N7">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>6450</v>
+      </c>
+      <c r="E8">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G8">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H8">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I8">
+        <v>4.41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>410</v>
+      </c>
+      <c r="K8">
+        <v>8.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>436</v>
+      </c>
+      <c r="N8">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D9">
+        <v>6450</v>
+      </c>
+      <c r="E9">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G9">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H9">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I9">
+        <v>4.41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L9" t="s">
+        <v>424</v>
+      </c>
+      <c r="N9">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D10">
+        <v>6450</v>
+      </c>
+      <c r="E10">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G10">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H10">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I10">
+        <v>4.41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>381</v>
+      </c>
+      <c r="K10">
+        <v>6.6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>436</v>
+      </c>
+      <c r="N10">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D11">
+        <v>6450</v>
+      </c>
+      <c r="E11">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G11">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H11">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I11">
+        <v>4.41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>396</v>
+      </c>
+      <c r="K11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L11" t="s">
+        <v>439</v>
+      </c>
+      <c r="M11">
+        <v>88</v>
+      </c>
+      <c r="N11">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D12">
+        <v>6450</v>
+      </c>
+      <c r="E12">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G12">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H12">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I12">
+        <v>4.41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>427</v>
+      </c>
+      <c r="K12">
+        <v>3.3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>440</v>
+      </c>
+      <c r="M12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D13">
+        <v>6450</v>
+      </c>
+      <c r="E13">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G13">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H13">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I13">
+        <v>4.41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13">
+        <v>1.2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D14">
+        <v>6450</v>
+      </c>
+      <c r="E14">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G14">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H14">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I14">
+        <v>4.41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>441</v>
+      </c>
+      <c r="K14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D15">
+        <v>6450</v>
+      </c>
+      <c r="E15">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G15">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H15">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I15">
+        <v>4.41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>430</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D16">
+        <v>6450</v>
+      </c>
+      <c r="E16">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G16">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H16">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I16">
+        <v>4.41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>442</v>
+      </c>
+      <c r="K16">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>443</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D17">
+        <v>6450</v>
+      </c>
+      <c r="E17">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G17">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H17">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I17">
+        <v>4.41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>418</v>
+      </c>
+      <c r="M17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D18">
+        <v>6450</v>
+      </c>
+      <c r="E18">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G18">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H18">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I18">
+        <v>4.41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>445</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>421</v>
+      </c>
+      <c r="M18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D19">
+        <v>6450</v>
+      </c>
+      <c r="E19">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G19">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H19">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I19">
+        <v>4.41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>446</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D20">
+        <v>6450</v>
+      </c>
+      <c r="E20">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G20">
+        <v>8.7719904365322421</v>
+      </c>
+      <c r="H20">
+        <v>3.4210526315789469</v>
+      </c>
+      <c r="I20">
+        <v>4.41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>447</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21">
+        <v>4.7</v>
+      </c>
+      <c r="D21">
+        <v>627</v>
+      </c>
+      <c r="E21">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G21">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H21">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J21" t="s">
+        <v>387</v>
+      </c>
+      <c r="K21">
+        <v>22.3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>437</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22">
+        <v>4.7</v>
+      </c>
+      <c r="D22">
+        <v>627</v>
+      </c>
+      <c r="E22">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G22">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H22">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J22" t="s">
+        <v>372</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>408</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23">
+        <v>4.7</v>
+      </c>
+      <c r="D23">
+        <v>627</v>
+      </c>
+      <c r="E23">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G23">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H23">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J23" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23">
+        <v>14.5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>388</v>
+      </c>
+      <c r="N23">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24">
+        <v>4.7</v>
+      </c>
+      <c r="D24">
+        <v>627</v>
+      </c>
+      <c r="E24">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G24">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H24">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J24" t="s">
+        <v>370</v>
+      </c>
+      <c r="K24">
+        <v>12.9</v>
+      </c>
+      <c r="L24" t="s">
+        <v>384</v>
+      </c>
+      <c r="N24">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25">
+        <v>4.7</v>
+      </c>
+      <c r="D25">
+        <v>627</v>
+      </c>
+      <c r="E25">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G25">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H25">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J25" t="s">
+        <v>385</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>405</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26">
+        <v>4.7</v>
+      </c>
+      <c r="D26">
+        <v>627</v>
+      </c>
+      <c r="E26">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G26">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H26">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J26" t="s">
+        <v>381</v>
+      </c>
+      <c r="K26">
+        <v>7.7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>406</v>
+      </c>
+      <c r="N26">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27">
+        <v>4.7</v>
+      </c>
+      <c r="D27">
+        <v>627</v>
+      </c>
+      <c r="E27">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G27">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H27">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J27" t="s">
+        <v>374</v>
+      </c>
+      <c r="K27">
+        <v>8.6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>429</v>
+      </c>
+      <c r="N27">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28">
+        <v>4.7</v>
+      </c>
+      <c r="D28">
+        <v>627</v>
+      </c>
+      <c r="E28">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G28">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H28">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J28" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28">
+        <v>6.4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>429</v>
+      </c>
+      <c r="N28">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29">
+        <v>4.7</v>
+      </c>
+      <c r="D29">
+        <v>627</v>
+      </c>
+      <c r="E29">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G29">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H29">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J29" t="s">
+        <v>480</v>
+      </c>
+      <c r="K29">
+        <v>6.4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>422</v>
+      </c>
+      <c r="N29">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30">
+        <v>4.7</v>
+      </c>
+      <c r="D30">
+        <v>627</v>
+      </c>
+      <c r="E30">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G30">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H30">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I30">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J30" t="s">
+        <v>415</v>
+      </c>
+      <c r="K30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L30" t="s">
+        <v>456</v>
+      </c>
+      <c r="N30">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31">
+        <v>4.7</v>
+      </c>
+      <c r="D31">
+        <v>627</v>
+      </c>
+      <c r="E31">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G31">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H31">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J31" t="s">
+        <v>403</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32">
+        <v>4.7</v>
+      </c>
+      <c r="D32">
+        <v>627</v>
+      </c>
+      <c r="E32">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G32">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H32">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J32" t="s">
+        <v>430</v>
+      </c>
+      <c r="K32">
+        <v>1.6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33">
+        <v>4.7</v>
+      </c>
+      <c r="D33">
+        <v>627</v>
+      </c>
+      <c r="E33">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G33">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H33">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J33" t="s">
+        <v>390</v>
+      </c>
+      <c r="K33">
+        <v>1.3</v>
+      </c>
+      <c r="L33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34">
+        <v>4.7</v>
+      </c>
+      <c r="D34">
+        <v>627</v>
+      </c>
+      <c r="E34">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G34">
+        <v>6.4425401664681976</v>
+      </c>
+      <c r="H34">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="I34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J34" t="s">
+        <v>481</v>
+      </c>
+      <c r="K34">
+        <v>0.2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35">
+        <v>4.5</v>
+      </c>
+      <c r="D35">
+        <v>1143</v>
+      </c>
+      <c r="E35">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F35">
+        <v>0.6</v>
+      </c>
+      <c r="G35">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4.26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>385</v>
+      </c>
+      <c r="K35">
+        <v>18.5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>424</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <v>4.5</v>
+      </c>
+      <c r="D36">
+        <v>1143</v>
+      </c>
+      <c r="E36">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F36">
+        <v>0.6</v>
+      </c>
+      <c r="G36">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>4.26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>372</v>
+      </c>
+      <c r="K36">
+        <v>14.9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>408</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <v>4.5</v>
+      </c>
+      <c r="D37">
+        <v>1143</v>
+      </c>
+      <c r="E37">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F37">
+        <v>0.6</v>
+      </c>
+      <c r="G37">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>4.26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>415</v>
+      </c>
+      <c r="K37">
+        <v>12.8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>406</v>
+      </c>
+      <c r="N37">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38">
+        <v>4.5</v>
+      </c>
+      <c r="D38">
+        <v>1143</v>
+      </c>
+      <c r="E38">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F38">
+        <v>0.6</v>
+      </c>
+      <c r="G38">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>4.26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>370</v>
+      </c>
+      <c r="K38">
+        <v>10.1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>432</v>
+      </c>
+      <c r="N38">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>4.5</v>
+      </c>
+      <c r="D39">
+        <v>1143</v>
+      </c>
+      <c r="E39">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F39">
+        <v>0.6</v>
+      </c>
+      <c r="G39">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>4.26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>381</v>
+      </c>
+      <c r="K39">
+        <v>11</v>
+      </c>
+      <c r="L39" t="s">
+        <v>433</v>
+      </c>
+      <c r="N39">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40">
+        <v>4.5</v>
+      </c>
+      <c r="D40">
+        <v>1143</v>
+      </c>
+      <c r="E40">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F40">
+        <v>0.6</v>
+      </c>
+      <c r="G40">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>4.26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>410</v>
+      </c>
+      <c r="K40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L40" t="s">
+        <v>431</v>
+      </c>
+      <c r="N40">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>4.5</v>
+      </c>
+      <c r="D41">
+        <v>1143</v>
+      </c>
+      <c r="E41">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F41">
+        <v>0.6</v>
+      </c>
+      <c r="G41">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>4.26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>403</v>
+      </c>
+      <c r="K41">
+        <v>7.6</v>
+      </c>
+      <c r="L41" t="s">
+        <v>434</v>
+      </c>
+      <c r="N41">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42">
+        <v>4.5</v>
+      </c>
+      <c r="D42">
+        <v>1143</v>
+      </c>
+      <c r="E42">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F42">
+        <v>0.6</v>
+      </c>
+      <c r="G42">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>4.26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>387</v>
+      </c>
+      <c r="K42">
+        <v>4.7</v>
+      </c>
+      <c r="L42" t="s">
+        <v>429</v>
+      </c>
+      <c r="N42">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>4.5</v>
+      </c>
+      <c r="D43">
+        <v>1143</v>
+      </c>
+      <c r="E43">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+      <c r="G43">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>4.26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>409</v>
+      </c>
+      <c r="K43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44">
+        <v>4.5</v>
+      </c>
+      <c r="D44">
+        <v>1143</v>
+      </c>
+      <c r="E44">
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="F44">
+        <v>0.6</v>
+      </c>
+      <c r="G44">
+        <v>7.0422861719397432</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>4.26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>392</v>
+      </c>
+      <c r="K44">
+        <v>0.8</v>
+      </c>
+      <c r="L44" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D45">
         <v>317</v>
       </c>
-      <c r="E5">
+      <c r="E45">
         <v>4.5055555555555564</v>
       </c>
-      <c r="F5">
+      <c r="F45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G5">
+      <c r="G45">
         <v>5.7620513827801769</v>
       </c>
-      <c r="H5">
+      <c r="H45">
         <v>4.166666666666667</v>
       </c>
-      <c r="I5">
-        <v>4.221869318824524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="I45">
+        <v>4.26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+      <c r="K45">
+        <v>24.9</v>
+      </c>
+      <c r="L45" t="s">
+        <v>456</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D46">
+        <v>317</v>
+      </c>
+      <c r="E46">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F46">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G46">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H46">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I46">
+        <v>4.26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46">
+        <v>20.8</v>
+      </c>
+      <c r="L46" t="s">
+        <v>431</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D47">
+        <v>317</v>
+      </c>
+      <c r="E47">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F47">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G47">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H47">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I47">
+        <v>4.26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47">
+        <v>13.9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>457</v>
+      </c>
+      <c r="N47">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D48">
+        <v>317</v>
+      </c>
+      <c r="E48">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F48">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G48">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H48">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I48">
+        <v>4.26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48">
+        <v>14.8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>408</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D49">
+        <v>317</v>
+      </c>
+      <c r="E49">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F49">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G49">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H49">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I49">
+        <v>4.26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L49" t="s">
+        <v>451</v>
+      </c>
+      <c r="N49">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D50">
+        <v>317</v>
+      </c>
+      <c r="E50">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F50">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G50">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H50">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I50">
+        <v>4.26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>381</v>
+      </c>
+      <c r="K50">
+        <v>10.1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>456</v>
+      </c>
+      <c r="N50">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D51">
+        <v>317</v>
+      </c>
+      <c r="E51">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G51">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H51">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I51">
+        <v>4.26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>383</v>
+      </c>
+      <c r="K51">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="N51">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D52">
+        <v>317</v>
+      </c>
+      <c r="E52">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G52">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H52">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I52">
+        <v>4.26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>377</v>
+      </c>
+      <c r="K52">
+        <v>7.9</v>
+      </c>
+      <c r="L52" t="s">
+        <v>458</v>
+      </c>
+      <c r="N52">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D53">
+        <v>317</v>
+      </c>
+      <c r="E53">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F53">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G53">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H53">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I53">
+        <v>4.26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>385</v>
+      </c>
+      <c r="K53">
+        <v>5.7</v>
+      </c>
+      <c r="L53" t="s">
+        <v>371</v>
+      </c>
+      <c r="N53">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D54">
+        <v>317</v>
+      </c>
+      <c r="E54">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F54">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G54">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H54">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I54">
+        <v>4.26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>459</v>
+      </c>
+      <c r="K54">
+        <v>2.8</v>
+      </c>
+      <c r="L54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D55">
+        <v>317</v>
+      </c>
+      <c r="E55">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G55">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H55">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I55">
+        <v>4.26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>389</v>
+      </c>
+      <c r="K55">
+        <v>1.9</v>
+      </c>
+      <c r="L55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D56">
+        <v>317</v>
+      </c>
+      <c r="E56">
+        <v>4.5055555555555564</v>
+      </c>
+      <c r="F56">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G56">
+        <v>5.7620513827801769</v>
+      </c>
+      <c r="H56">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I56">
+        <v>4.26</v>
+      </c>
+      <c r="J56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56">
+        <v>0.3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D57">
+        <v>380</v>
+      </c>
+      <c r="E57">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>4.24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K57">
+        <v>28.4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>482</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D58">
+        <v>380</v>
+      </c>
+      <c r="E58">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>4.24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>415</v>
+      </c>
+      <c r="K58">
+        <v>31.6</v>
+      </c>
+      <c r="L58" t="s">
+        <v>419</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B59" t="s">
+        <v>330</v>
+      </c>
+      <c r="C59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D59">
+        <v>380</v>
+      </c>
+      <c r="E59">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>4.24</v>
+      </c>
+      <c r="J59" t="s">
+        <v>381</v>
+      </c>
+      <c r="K59">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L59" t="s">
+        <v>419</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D60">
+        <v>380</v>
+      </c>
+      <c r="E60">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>4.24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>398</v>
+      </c>
+      <c r="K60">
+        <v>18.7</v>
+      </c>
+      <c r="L60" t="s">
+        <v>395</v>
+      </c>
+      <c r="N60">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D61">
+        <v>380</v>
+      </c>
+      <c r="E61">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>4.24</v>
+      </c>
+      <c r="J61" t="s">
+        <v>401</v>
+      </c>
+      <c r="K61">
+        <v>7.6</v>
+      </c>
+      <c r="L61" t="s">
+        <v>453</v>
+      </c>
+      <c r="N61">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D62">
+        <v>380</v>
+      </c>
+      <c r="E62">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>4.24</v>
+      </c>
+      <c r="J62" t="s">
+        <v>385</v>
+      </c>
+      <c r="K62">
+        <v>7.4</v>
+      </c>
+      <c r="L62" t="s">
+        <v>431</v>
+      </c>
+      <c r="N62">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>329</v>
+      </c>
+      <c r="B63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D63">
+        <v>380</v>
+      </c>
+      <c r="E63">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>4.24</v>
+      </c>
+      <c r="J63" t="s">
+        <v>480</v>
+      </c>
+      <c r="K63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L63" t="s">
+        <v>464</v>
+      </c>
+      <c r="M63">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D6">
-        <v>461</v>
-      </c>
-      <c r="E6">
-        <v>3.78</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.1355648910817386</v>
-      </c>
-      <c r="H6">
+      <c r="N63">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>329</v>
+      </c>
+      <c r="B64" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D64">
+        <v>380</v>
+      </c>
+      <c r="E64">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H64">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>4.1534495645514236</v>
+      <c r="I64">
+        <v>4.24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>383</v>
+      </c>
+      <c r="K64">
+        <v>5.5</v>
+      </c>
+      <c r="L64" t="s">
+        <v>402</v>
+      </c>
+      <c r="N64">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>329</v>
+      </c>
+      <c r="B65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C65">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D65">
+        <v>380</v>
+      </c>
+      <c r="E65">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>4.24</v>
+      </c>
+      <c r="J65" t="s">
+        <v>387</v>
+      </c>
+      <c r="K65">
+        <v>7.1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>405</v>
+      </c>
+      <c r="N65">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D66">
+        <v>380</v>
+      </c>
+      <c r="E66">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4.24</v>
+      </c>
+      <c r="J66" t="s">
+        <v>392</v>
+      </c>
+      <c r="K66">
+        <v>2.6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>329</v>
+      </c>
+      <c r="B67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D67">
+        <v>380</v>
+      </c>
+      <c r="E67">
+        <v>4.2122222222222216</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>5.9427993751267012</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>4.24</v>
+      </c>
+      <c r="J67" t="s">
+        <v>390</v>
+      </c>
+      <c r="K67">
+        <v>2.4</v>
+      </c>
+      <c r="L67" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/results/double_strollers_All.xlsx
+++ b/results/double_strollers_All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deank\Passive_Income\Best_Reviews__Blog\Scraper\Google_Shopping_Scraper\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E36421-B2B0-4E3D-8D33-60C0C4E9505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2201EB32-6DA5-4BF9-B765-BA97114C1096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="2680" windowWidth="16200" windowHeight="27970" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5926" uniqueCount="690">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -2480,15 +2480,6 @@
   </si>
   <si>
     <t>finalFeatureScore</t>
-  </si>
-  <si>
-    <t>average_feature_score</t>
-  </si>
-  <si>
-    <t>positive_sentiment_rate</t>
-  </si>
-  <si>
-    <t>normalized_sentiment</t>
   </si>
 </sst>
 </file>
@@ -32993,18 +32984,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>489</v>
       </c>
@@ -33018,37 +33010,25 @@
         <v>484</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>690</v>
+        <v>366</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>487</v>
+        <v>368</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>692</v>
+        <v>369</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -33061,35 +33041,23 @@
       <c r="D2">
         <v>6450</v>
       </c>
-      <c r="E2">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F2">
-        <v>0.68421052631578949</v>
+      <c r="E2" t="s">
+        <v>372</v>
       </c>
       <c r="G2">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H2">
-        <v>3.4210526315789469</v>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>384</v>
       </c>
       <c r="I2">
+        <v>4.82</v>
+      </c>
+      <c r="J2">
         <v>4.41</v>
       </c>
-      <c r="J2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K2">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="L2" t="s">
-        <v>384</v>
-      </c>
-      <c r="N2">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -33102,35 +33070,23 @@
       <c r="D3">
         <v>6450</v>
       </c>
-      <c r="E3">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.68421052631578949</v>
+      <c r="E3" t="s">
+        <v>387</v>
       </c>
       <c r="G3">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H3">
-        <v>3.4210526315789469</v>
+        <v>21.2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>437</v>
       </c>
       <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
         <v>4.41</v>
       </c>
-      <c r="J3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K3">
-        <v>21.2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>437</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -33143,35 +33099,23 @@
       <c r="D4">
         <v>6450</v>
       </c>
-      <c r="E4">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.68421052631578949</v>
+      <c r="E4" t="s">
+        <v>401</v>
       </c>
       <c r="G4">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H4">
-        <v>3.4210526315789469</v>
+        <v>11.8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>438</v>
       </c>
       <c r="I4">
+        <v>4.26</v>
+      </c>
+      <c r="J4">
         <v>4.41</v>
       </c>
-      <c r="J4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K4">
-        <v>11.8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>438</v>
-      </c>
-      <c r="N4">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -33184,35 +33128,23 @@
       <c r="D5">
         <v>6450</v>
       </c>
-      <c r="E5">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.68421052631578949</v>
+      <c r="E5" t="s">
+        <v>374</v>
       </c>
       <c r="G5">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H5">
-        <v>3.4210526315789469</v>
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>411</v>
       </c>
       <c r="I5">
+        <v>4.03</v>
+      </c>
+      <c r="J5">
         <v>4.41</v>
       </c>
-      <c r="J5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>411</v>
-      </c>
-      <c r="N5">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -33225,35 +33157,23 @@
       <c r="D6">
         <v>6450</v>
       </c>
-      <c r="E6">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.68421052631578949</v>
+      <c r="E6" t="s">
+        <v>385</v>
       </c>
       <c r="G6">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H6">
-        <v>3.4210526315789469</v>
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>424</v>
       </c>
       <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>4.41</v>
       </c>
-      <c r="J6" t="s">
-        <v>385</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>424</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -33266,35 +33186,23 @@
       <c r="D7">
         <v>6450</v>
       </c>
-      <c r="E7">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.68421052631578949</v>
+      <c r="E7" t="s">
+        <v>398</v>
       </c>
       <c r="G7">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H7">
-        <v>3.4210526315789469</v>
+        <v>10.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>380</v>
       </c>
       <c r="I7">
+        <v>3.23</v>
+      </c>
+      <c r="J7">
         <v>4.41</v>
       </c>
-      <c r="J7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K7">
-        <v>10.5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>380</v>
-      </c>
-      <c r="N7">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -33307,35 +33215,23 @@
       <c r="D8">
         <v>6450</v>
       </c>
-      <c r="E8">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.68421052631578949</v>
+      <c r="E8" t="s">
+        <v>410</v>
       </c>
       <c r="G8">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H8">
-        <v>3.4210526315789469</v>
+        <v>8.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>436</v>
       </c>
       <c r="I8">
+        <v>4.54</v>
+      </c>
+      <c r="J8">
         <v>4.41</v>
       </c>
-      <c r="J8" t="s">
-        <v>410</v>
-      </c>
-      <c r="K8">
-        <v>8.5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>436</v>
-      </c>
-      <c r="N8">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -33348,35 +33244,23 @@
       <c r="D9">
         <v>6450</v>
       </c>
-      <c r="E9">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.68421052631578949</v>
+      <c r="E9" t="s">
+        <v>415</v>
       </c>
       <c r="G9">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H9">
-        <v>3.4210526315789469</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H9" t="s">
+        <v>424</v>
       </c>
       <c r="I9">
+        <v>4.92</v>
+      </c>
+      <c r="J9">
         <v>4.41</v>
       </c>
-      <c r="J9" t="s">
-        <v>415</v>
-      </c>
-      <c r="K9">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L9" t="s">
-        <v>424</v>
-      </c>
-      <c r="N9">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -33389,35 +33273,23 @@
       <c r="D10">
         <v>6450</v>
       </c>
-      <c r="E10">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.68421052631578949</v>
+      <c r="E10" t="s">
+        <v>381</v>
       </c>
       <c r="G10">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H10">
-        <v>3.4210526315789469</v>
+        <v>6.6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>436</v>
       </c>
       <c r="I10">
+        <v>4.42</v>
+      </c>
+      <c r="J10">
         <v>4.41</v>
       </c>
-      <c r="J10" t="s">
-        <v>381</v>
-      </c>
-      <c r="K10">
-        <v>6.6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>436</v>
-      </c>
-      <c r="N10">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -33430,38 +33302,26 @@
       <c r="D11">
         <v>6450</v>
       </c>
-      <c r="E11">
-        <v>4.2290000000000001</v>
+      <c r="E11" t="s">
+        <v>396</v>
       </c>
       <c r="F11">
-        <v>0.68421052631578949</v>
+        <v>88</v>
       </c>
       <c r="G11">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H11">
-        <v>3.4210526315789469</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H11" t="s">
+        <v>439</v>
       </c>
       <c r="I11">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J11">
         <v>4.41</v>
       </c>
-      <c r="J11" t="s">
-        <v>396</v>
-      </c>
-      <c r="K11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L11" t="s">
-        <v>439</v>
-      </c>
-      <c r="M11">
-        <v>88</v>
-      </c>
-      <c r="N11">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -33474,35 +33334,23 @@
       <c r="D12">
         <v>6450</v>
       </c>
-      <c r="E12">
-        <v>4.2290000000000001</v>
+      <c r="E12" t="s">
+        <v>427</v>
       </c>
       <c r="F12">
-        <v>0.68421052631578949</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H12">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I12">
+        <v>3.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12">
         <v>4.41</v>
       </c>
-      <c r="J12" t="s">
-        <v>427</v>
-      </c>
-      <c r="K12">
-        <v>3.3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>440</v>
-      </c>
-      <c r="M12">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -33515,32 +33363,20 @@
       <c r="D13">
         <v>6450</v>
       </c>
-      <c r="E13">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.68421052631578949</v>
+      <c r="E13" t="s">
+        <v>409</v>
       </c>
       <c r="G13">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H13">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I13">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>438</v>
+      </c>
+      <c r="J13">
         <v>4.41</v>
       </c>
-      <c r="J13" t="s">
-        <v>409</v>
-      </c>
-      <c r="K13">
-        <v>1.2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -33553,32 +33389,20 @@
       <c r="D14">
         <v>6450</v>
       </c>
-      <c r="E14">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.68421052631578949</v>
+      <c r="E14" t="s">
+        <v>441</v>
       </c>
       <c r="G14">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H14">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>373</v>
+      </c>
+      <c r="J14">
         <v>4.41</v>
       </c>
-      <c r="J14" t="s">
-        <v>441</v>
-      </c>
-      <c r="K14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -33591,32 +33415,20 @@
       <c r="D15">
         <v>6450</v>
       </c>
-      <c r="E15">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.68421052631578949</v>
+      <c r="E15" t="s">
+        <v>430</v>
       </c>
       <c r="G15">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H15">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I15">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J15">
         <v>4.41</v>
       </c>
-      <c r="J15" t="s">
-        <v>430</v>
-      </c>
-      <c r="K15">
-        <v>0.9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -33629,35 +33441,23 @@
       <c r="D16">
         <v>6450</v>
       </c>
-      <c r="E16">
-        <v>4.2290000000000001</v>
+      <c r="E16" t="s">
+        <v>442</v>
       </c>
       <c r="F16">
-        <v>0.68421052631578949</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H16">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J16">
         <v>4.41</v>
       </c>
-      <c r="J16" t="s">
-        <v>442</v>
-      </c>
-      <c r="K16">
-        <v>0.2</v>
-      </c>
-      <c r="L16" t="s">
-        <v>443</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -33670,35 +33470,23 @@
       <c r="D17">
         <v>6450</v>
       </c>
-      <c r="E17">
-        <v>4.2290000000000001</v>
+      <c r="E17" t="s">
+        <v>444</v>
       </c>
       <c r="F17">
-        <v>0.68421052631578949</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H17">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>418</v>
+      </c>
+      <c r="J17">
         <v>4.41</v>
       </c>
-      <c r="J17" t="s">
-        <v>444</v>
-      </c>
-      <c r="K17">
-        <v>0.2</v>
-      </c>
-      <c r="L17" t="s">
-        <v>418</v>
-      </c>
-      <c r="M17">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -33711,35 +33499,23 @@
       <c r="D18">
         <v>6450</v>
       </c>
-      <c r="E18">
-        <v>4.2290000000000001</v>
+      <c r="E18" t="s">
+        <v>445</v>
       </c>
       <c r="F18">
-        <v>0.68421052631578949</v>
+        <v>71</v>
       </c>
       <c r="G18">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H18">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>421</v>
+      </c>
+      <c r="J18">
         <v>4.41</v>
       </c>
-      <c r="J18" t="s">
-        <v>445</v>
-      </c>
-      <c r="K18">
-        <v>0.1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>421</v>
-      </c>
-      <c r="M18">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -33752,32 +33528,20 @@
       <c r="D19">
         <v>6450</v>
       </c>
-      <c r="E19">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.68421052631578949</v>
+      <c r="E19" t="s">
+        <v>446</v>
       </c>
       <c r="G19">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H19">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>375</v>
+      </c>
+      <c r="J19">
         <v>4.41</v>
       </c>
-      <c r="J19" t="s">
-        <v>446</v>
-      </c>
-      <c r="K19">
-        <v>0.1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -33790,32 +33554,20 @@
       <c r="D20">
         <v>6450</v>
       </c>
-      <c r="E20">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.68421052631578949</v>
+      <c r="E20" t="s">
+        <v>447</v>
       </c>
       <c r="G20">
-        <v>8.7719904365322421</v>
-      </c>
-      <c r="H20">
-        <v>3.4210526315789469</v>
-      </c>
-      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>426</v>
+      </c>
+      <c r="J20">
         <v>4.41</v>
       </c>
-      <c r="J20" t="s">
-        <v>447</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>310</v>
       </c>
@@ -33828,35 +33580,23 @@
       <c r="D21">
         <v>627</v>
       </c>
-      <c r="E21">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F21">
-        <v>0.8571428571428571</v>
+      <c r="E21" t="s">
+        <v>387</v>
       </c>
       <c r="G21">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H21">
-        <v>4.2857142857142856</v>
+        <v>22.3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>437</v>
       </c>
       <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J21" t="s">
-        <v>387</v>
-      </c>
-      <c r="K21">
-        <v>22.3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>437</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -33869,35 +33609,23 @@
       <c r="D22">
         <v>627</v>
       </c>
-      <c r="E22">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F22">
-        <v>0.8571428571428571</v>
+      <c r="E22" t="s">
+        <v>372</v>
       </c>
       <c r="G22">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H22">
-        <v>4.2857142857142856</v>
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>408</v>
       </c>
       <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J22" t="s">
-        <v>372</v>
-      </c>
-      <c r="K22">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>408</v>
-      </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>310</v>
       </c>
@@ -33910,35 +33638,23 @@
       <c r="D23">
         <v>627</v>
       </c>
-      <c r="E23">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F23">
-        <v>0.8571428571428571</v>
+      <c r="E23" t="s">
+        <v>401</v>
       </c>
       <c r="G23">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H23">
-        <v>4.2857142857142856</v>
+        <v>14.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>388</v>
       </c>
       <c r="I23">
+        <v>4.88</v>
+      </c>
+      <c r="J23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J23" t="s">
-        <v>401</v>
-      </c>
-      <c r="K23">
-        <v>14.5</v>
-      </c>
-      <c r="L23" t="s">
-        <v>388</v>
-      </c>
-      <c r="N23">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>310</v>
       </c>
@@ -33951,35 +33667,23 @@
       <c r="D24">
         <v>627</v>
       </c>
-      <c r="E24">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F24">
-        <v>0.8571428571428571</v>
+      <c r="E24" t="s">
+        <v>370</v>
       </c>
       <c r="G24">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H24">
-        <v>4.2857142857142856</v>
+        <v>12.9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>384</v>
       </c>
       <c r="I24">
+        <v>4.51</v>
+      </c>
+      <c r="J24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J24" t="s">
-        <v>370</v>
-      </c>
-      <c r="K24">
-        <v>12.9</v>
-      </c>
-      <c r="L24" t="s">
-        <v>384</v>
-      </c>
-      <c r="N24">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -33992,35 +33696,23 @@
       <c r="D25">
         <v>627</v>
       </c>
-      <c r="E25">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F25">
-        <v>0.8571428571428571</v>
+      <c r="E25" t="s">
+        <v>385</v>
       </c>
       <c r="G25">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H25">
-        <v>4.2857142857142856</v>
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>405</v>
       </c>
       <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J25" t="s">
-        <v>385</v>
-      </c>
-      <c r="K25">
-        <v>12</v>
-      </c>
-      <c r="L25" t="s">
-        <v>405</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>310</v>
       </c>
@@ -34033,35 +33725,23 @@
       <c r="D26">
         <v>627</v>
       </c>
-      <c r="E26">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F26">
-        <v>0.8571428571428571</v>
+      <c r="E26" t="s">
+        <v>381</v>
       </c>
       <c r="G26">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H26">
-        <v>4.2857142857142856</v>
+        <v>7.7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>406</v>
       </c>
       <c r="I26">
+        <v>4.13</v>
+      </c>
+      <c r="J26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J26" t="s">
-        <v>381</v>
-      </c>
-      <c r="K26">
-        <v>7.7</v>
-      </c>
-      <c r="L26" t="s">
-        <v>406</v>
-      </c>
-      <c r="N26">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>310</v>
       </c>
@@ -34074,35 +33754,23 @@
       <c r="D27">
         <v>627</v>
       </c>
-      <c r="E27">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F27">
-        <v>0.8571428571428571</v>
+      <c r="E27" t="s">
+        <v>374</v>
       </c>
       <c r="G27">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H27">
-        <v>4.2857142857142856</v>
+        <v>8.6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>429</v>
       </c>
       <c r="I27">
+        <v>4.95</v>
+      </c>
+      <c r="J27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J27" t="s">
-        <v>374</v>
-      </c>
-      <c r="K27">
-        <v>8.6</v>
-      </c>
-      <c r="L27" t="s">
-        <v>429</v>
-      </c>
-      <c r="N27">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -34115,35 +33783,23 @@
       <c r="D28">
         <v>627</v>
       </c>
-      <c r="E28">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F28">
-        <v>0.8571428571428571</v>
+      <c r="E28" t="s">
+        <v>410</v>
       </c>
       <c r="G28">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H28">
-        <v>4.2857142857142856</v>
+        <v>6.4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>429</v>
       </c>
       <c r="I28">
+        <v>4.82</v>
+      </c>
+      <c r="J28">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J28" t="s">
-        <v>410</v>
-      </c>
-      <c r="K28">
-        <v>6.4</v>
-      </c>
-      <c r="L28" t="s">
-        <v>429</v>
-      </c>
-      <c r="N28">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -34156,35 +33812,23 @@
       <c r="D29">
         <v>627</v>
       </c>
-      <c r="E29">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F29">
-        <v>0.8571428571428571</v>
+      <c r="E29" t="s">
+        <v>480</v>
       </c>
       <c r="G29">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H29">
-        <v>4.2857142857142856</v>
+        <v>6.4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>422</v>
       </c>
       <c r="I29">
+        <v>2.88</v>
+      </c>
+      <c r="J29">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J29" t="s">
-        <v>480</v>
-      </c>
-      <c r="K29">
-        <v>6.4</v>
-      </c>
-      <c r="L29" t="s">
-        <v>422</v>
-      </c>
-      <c r="N29">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>310</v>
       </c>
@@ -34197,35 +33841,23 @@
       <c r="D30">
         <v>627</v>
       </c>
-      <c r="E30">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F30">
-        <v>0.8571428571428571</v>
+      <c r="E30" t="s">
+        <v>415</v>
       </c>
       <c r="G30">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H30">
-        <v>4.2857142857142856</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H30" t="s">
+        <v>456</v>
       </c>
       <c r="I30">
+        <v>4.41</v>
+      </c>
+      <c r="J30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J30" t="s">
-        <v>415</v>
-      </c>
-      <c r="K30">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L30" t="s">
-        <v>456</v>
-      </c>
-      <c r="N30">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -34238,32 +33870,20 @@
       <c r="D31">
         <v>627</v>
       </c>
-      <c r="E31">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F31">
-        <v>0.8571428571428571</v>
+      <c r="E31" t="s">
+        <v>403</v>
       </c>
       <c r="G31">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H31">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>417</v>
+      </c>
+      <c r="J31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J31" t="s">
-        <v>403</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -34276,32 +33896,20 @@
       <c r="D32">
         <v>627</v>
       </c>
-      <c r="E32">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F32">
-        <v>0.8571428571428571</v>
+      <c r="E32" t="s">
+        <v>430</v>
       </c>
       <c r="G32">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H32">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="I32">
+        <v>1.6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>456</v>
+      </c>
+      <c r="J32">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J32" t="s">
-        <v>430</v>
-      </c>
-      <c r="K32">
-        <v>1.6</v>
-      </c>
-      <c r="L32" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -34314,32 +33922,20 @@
       <c r="D33">
         <v>627</v>
       </c>
-      <c r="E33">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F33">
-        <v>0.8571428571428571</v>
+      <c r="E33" t="s">
+        <v>390</v>
       </c>
       <c r="G33">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H33">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="I33">
+        <v>1.3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>386</v>
+      </c>
+      <c r="J33">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J33" t="s">
-        <v>390</v>
-      </c>
-      <c r="K33">
-        <v>1.3</v>
-      </c>
-      <c r="L33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>310</v>
       </c>
@@ -34352,32 +33948,20 @@
       <c r="D34">
         <v>627</v>
       </c>
-      <c r="E34">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="F34">
-        <v>0.8571428571428571</v>
+      <c r="E34" t="s">
+        <v>481</v>
       </c>
       <c r="G34">
-        <v>6.4425401664681976</v>
-      </c>
-      <c r="H34">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="I34">
+        <v>0.2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>386</v>
+      </c>
+      <c r="J34">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J34" t="s">
-        <v>481</v>
-      </c>
-      <c r="K34">
-        <v>0.2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -34390,35 +33974,23 @@
       <c r="D35">
         <v>1143</v>
       </c>
-      <c r="E35">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F35">
-        <v>0.6</v>
+      <c r="E35" t="s">
+        <v>385</v>
       </c>
       <c r="G35">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
+        <v>18.5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>424</v>
       </c>
       <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
         <v>4.26</v>
       </c>
-      <c r="J35" t="s">
-        <v>385</v>
-      </c>
-      <c r="K35">
-        <v>18.5</v>
-      </c>
-      <c r="L35" t="s">
-        <v>424</v>
-      </c>
-      <c r="N35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -34431,35 +34003,23 @@
       <c r="D36">
         <v>1143</v>
       </c>
-      <c r="E36">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F36">
-        <v>0.6</v>
+      <c r="E36" t="s">
+        <v>372</v>
       </c>
       <c r="G36">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
+        <v>14.9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>408</v>
       </c>
       <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
         <v>4.26</v>
       </c>
-      <c r="J36" t="s">
-        <v>372</v>
-      </c>
-      <c r="K36">
-        <v>14.9</v>
-      </c>
-      <c r="L36" t="s">
-        <v>408</v>
-      </c>
-      <c r="N36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -34472,35 +34032,23 @@
       <c r="D37">
         <v>1143</v>
       </c>
-      <c r="E37">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F37">
-        <v>0.6</v>
+      <c r="E37" t="s">
+        <v>415</v>
       </c>
       <c r="G37">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
+        <v>12.8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>406</v>
       </c>
       <c r="I37">
+        <v>4.46</v>
+      </c>
+      <c r="J37">
         <v>4.26</v>
       </c>
-      <c r="J37" t="s">
-        <v>415</v>
-      </c>
-      <c r="K37">
-        <v>12.8</v>
-      </c>
-      <c r="L37" t="s">
-        <v>406</v>
-      </c>
-      <c r="N37">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -34513,35 +34061,23 @@
       <c r="D38">
         <v>1143</v>
       </c>
-      <c r="E38">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F38">
-        <v>0.6</v>
+      <c r="E38" t="s">
+        <v>370</v>
       </c>
       <c r="G38">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
+        <v>10.1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>432</v>
       </c>
       <c r="I38">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J38">
         <v>4.26</v>
       </c>
-      <c r="J38" t="s">
-        <v>370</v>
-      </c>
-      <c r="K38">
-        <v>10.1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>432</v>
-      </c>
-      <c r="N38">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -34554,35 +34090,23 @@
       <c r="D39">
         <v>1143</v>
       </c>
-      <c r="E39">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F39">
-        <v>0.6</v>
+      <c r="E39" t="s">
+        <v>381</v>
       </c>
       <c r="G39">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>433</v>
       </c>
       <c r="I39">
+        <v>4.88</v>
+      </c>
+      <c r="J39">
         <v>4.26</v>
       </c>
-      <c r="J39" t="s">
-        <v>381</v>
-      </c>
-      <c r="K39">
-        <v>11</v>
-      </c>
-      <c r="L39" t="s">
-        <v>433</v>
-      </c>
-      <c r="N39">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -34595,35 +34119,23 @@
       <c r="D40">
         <v>1143</v>
       </c>
-      <c r="E40">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F40">
-        <v>0.6</v>
+      <c r="E40" t="s">
+        <v>410</v>
       </c>
       <c r="G40">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H40" t="s">
+        <v>431</v>
       </c>
       <c r="I40">
+        <v>4.58</v>
+      </c>
+      <c r="J40">
         <v>4.26</v>
       </c>
-      <c r="J40" t="s">
-        <v>410</v>
-      </c>
-      <c r="K40">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L40" t="s">
-        <v>431</v>
-      </c>
-      <c r="N40">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -34636,35 +34148,23 @@
       <c r="D41">
         <v>1143</v>
       </c>
-      <c r="E41">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F41">
-        <v>0.6</v>
+      <c r="E41" t="s">
+        <v>403</v>
       </c>
       <c r="G41">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
+        <v>7.6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>434</v>
       </c>
       <c r="I41">
+        <v>3.23</v>
+      </c>
+      <c r="J41">
         <v>4.26</v>
       </c>
-      <c r="J41" t="s">
-        <v>403</v>
-      </c>
-      <c r="K41">
-        <v>7.6</v>
-      </c>
-      <c r="L41" t="s">
-        <v>434</v>
-      </c>
-      <c r="N41">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -34677,35 +34177,23 @@
       <c r="D42">
         <v>1143</v>
       </c>
-      <c r="E42">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F42">
-        <v>0.6</v>
+      <c r="E42" t="s">
+        <v>387</v>
       </c>
       <c r="G42">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
+        <v>4.7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>429</v>
       </c>
       <c r="I42">
+        <v>4.71</v>
+      </c>
+      <c r="J42">
         <v>4.26</v>
       </c>
-      <c r="J42" t="s">
-        <v>387</v>
-      </c>
-      <c r="K42">
-        <v>4.7</v>
-      </c>
-      <c r="L42" t="s">
-        <v>429</v>
-      </c>
-      <c r="N42">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -34718,32 +34206,20 @@
       <c r="D43">
         <v>1143</v>
       </c>
-      <c r="E43">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F43">
-        <v>0.6</v>
+      <c r="E43" t="s">
+        <v>409</v>
       </c>
       <c r="G43">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H43" t="s">
+        <v>393</v>
+      </c>
+      <c r="J43">
         <v>4.26</v>
       </c>
-      <c r="J43" t="s">
-        <v>409</v>
-      </c>
-      <c r="K43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L43" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -34756,32 +34232,20 @@
       <c r="D44">
         <v>1143</v>
       </c>
-      <c r="E44">
-        <v>4.5062499999999996</v>
-      </c>
-      <c r="F44">
-        <v>0.6</v>
+      <c r="E44" t="s">
+        <v>392</v>
       </c>
       <c r="G44">
-        <v>7.0422861719397432</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
+        <v>0.8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>436</v>
+      </c>
+      <c r="J44">
         <v>4.26</v>
       </c>
-      <c r="J44" t="s">
-        <v>392</v>
-      </c>
-      <c r="K44">
-        <v>0.8</v>
-      </c>
-      <c r="L44" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -34794,35 +34258,23 @@
       <c r="D45">
         <v>317</v>
       </c>
-      <c r="E45">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F45">
-        <v>0.83333333333333337</v>
+      <c r="E45" t="s">
+        <v>370</v>
       </c>
       <c r="G45">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H45">
-        <v>4.166666666666667</v>
+        <v>24.9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>456</v>
       </c>
       <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
         <v>4.26</v>
       </c>
-      <c r="J45" t="s">
-        <v>370</v>
-      </c>
-      <c r="K45">
-        <v>24.9</v>
-      </c>
-      <c r="L45" t="s">
-        <v>456</v>
-      </c>
-      <c r="N45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -34835,35 +34287,23 @@
       <c r="D46">
         <v>317</v>
       </c>
-      <c r="E46">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F46">
-        <v>0.83333333333333337</v>
+      <c r="E46" t="s">
+        <v>372</v>
       </c>
       <c r="G46">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H46">
-        <v>4.166666666666667</v>
+        <v>20.8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>431</v>
       </c>
       <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
         <v>4.26</v>
       </c>
-      <c r="J46" t="s">
-        <v>372</v>
-      </c>
-      <c r="K46">
-        <v>20.8</v>
-      </c>
-      <c r="L46" t="s">
-        <v>431</v>
-      </c>
-      <c r="N46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -34876,35 +34316,23 @@
       <c r="D47">
         <v>317</v>
       </c>
-      <c r="E47">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F47">
-        <v>0.83333333333333337</v>
+      <c r="E47" t="s">
+        <v>374</v>
       </c>
       <c r="G47">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H47">
-        <v>4.166666666666667</v>
+        <v>13.9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>457</v>
       </c>
       <c r="I47">
+        <v>4.34</v>
+      </c>
+      <c r="J47">
         <v>4.26</v>
       </c>
-      <c r="J47" t="s">
-        <v>374</v>
-      </c>
-      <c r="K47">
-        <v>13.9</v>
-      </c>
-      <c r="L47" t="s">
-        <v>457</v>
-      </c>
-      <c r="N47">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -34917,35 +34345,23 @@
       <c r="D48">
         <v>317</v>
       </c>
-      <c r="E48">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F48">
-        <v>0.83333333333333337</v>
+      <c r="E48" t="s">
+        <v>376</v>
       </c>
       <c r="G48">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H48">
-        <v>4.166666666666667</v>
+        <v>14.8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>408</v>
       </c>
       <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
         <v>4.26</v>
       </c>
-      <c r="J48" t="s">
-        <v>376</v>
-      </c>
-      <c r="K48">
-        <v>14.8</v>
-      </c>
-      <c r="L48" t="s">
-        <v>408</v>
-      </c>
-      <c r="N48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -34958,35 +34374,23 @@
       <c r="D49">
         <v>317</v>
       </c>
-      <c r="E49">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F49">
-        <v>0.83333333333333337</v>
+      <c r="E49" t="s">
+        <v>415</v>
       </c>
       <c r="G49">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H49">
-        <v>4.166666666666667</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H49" t="s">
+        <v>451</v>
       </c>
       <c r="I49">
+        <v>3.8</v>
+      </c>
+      <c r="J49">
         <v>4.26</v>
       </c>
-      <c r="J49" t="s">
-        <v>415</v>
-      </c>
-      <c r="K49">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L49" t="s">
-        <v>451</v>
-      </c>
-      <c r="N49">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -34999,35 +34403,23 @@
       <c r="D50">
         <v>317</v>
       </c>
-      <c r="E50">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F50">
-        <v>0.83333333333333337</v>
+      <c r="E50" t="s">
+        <v>381</v>
       </c>
       <c r="G50">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H50">
-        <v>4.166666666666667</v>
+        <v>10.1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>456</v>
       </c>
       <c r="I50">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J50">
         <v>4.26</v>
       </c>
-      <c r="J50" t="s">
-        <v>381</v>
-      </c>
-      <c r="K50">
-        <v>10.1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>456</v>
-      </c>
-      <c r="N50">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -35040,35 +34432,23 @@
       <c r="D51">
         <v>317</v>
       </c>
-      <c r="E51">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F51">
-        <v>0.83333333333333337</v>
+      <c r="E51" t="s">
+        <v>383</v>
       </c>
       <c r="G51">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H51">
-        <v>4.166666666666667</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H51" t="s">
+        <v>405</v>
       </c>
       <c r="I51">
+        <v>4.84</v>
+      </c>
+      <c r="J51">
         <v>4.26</v>
       </c>
-      <c r="J51" t="s">
-        <v>383</v>
-      </c>
-      <c r="K51">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L51" t="s">
-        <v>405</v>
-      </c>
-      <c r="N51">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -35081,35 +34461,23 @@
       <c r="D52">
         <v>317</v>
       </c>
-      <c r="E52">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F52">
-        <v>0.83333333333333337</v>
+      <c r="E52" t="s">
+        <v>377</v>
       </c>
       <c r="G52">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H52">
-        <v>4.166666666666667</v>
+        <v>7.9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>458</v>
       </c>
       <c r="I52">
+        <v>3.2</v>
+      </c>
+      <c r="J52">
         <v>4.26</v>
       </c>
-      <c r="J52" t="s">
-        <v>377</v>
-      </c>
-      <c r="K52">
-        <v>7.9</v>
-      </c>
-      <c r="L52" t="s">
-        <v>458</v>
-      </c>
-      <c r="N52">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -35122,35 +34490,23 @@
       <c r="D53">
         <v>317</v>
       </c>
-      <c r="E53">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F53">
-        <v>0.83333333333333337</v>
+      <c r="E53" t="s">
+        <v>385</v>
       </c>
       <c r="G53">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H53">
-        <v>4.166666666666667</v>
+        <v>5.7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>371</v>
       </c>
       <c r="I53">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J53">
         <v>4.26</v>
       </c>
-      <c r="J53" t="s">
-        <v>385</v>
-      </c>
-      <c r="K53">
-        <v>5.7</v>
-      </c>
-      <c r="L53" t="s">
-        <v>371</v>
-      </c>
-      <c r="N53">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -35163,32 +34519,20 @@
       <c r="D54">
         <v>317</v>
       </c>
-      <c r="E54">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F54">
-        <v>0.83333333333333337</v>
+      <c r="E54" t="s">
+        <v>459</v>
       </c>
       <c r="G54">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H54">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I54">
+        <v>2.8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>386</v>
+      </c>
+      <c r="J54">
         <v>4.26</v>
       </c>
-      <c r="J54" t="s">
-        <v>459</v>
-      </c>
-      <c r="K54">
-        <v>2.8</v>
-      </c>
-      <c r="L54" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -35201,32 +34545,20 @@
       <c r="D55">
         <v>317</v>
       </c>
-      <c r="E55">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F55">
-        <v>0.83333333333333337</v>
+      <c r="E55" t="s">
+        <v>389</v>
       </c>
       <c r="G55">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H55">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I55">
+        <v>1.9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55">
         <v>4.26</v>
       </c>
-      <c r="J55" t="s">
-        <v>389</v>
-      </c>
-      <c r="K55">
-        <v>1.9</v>
-      </c>
-      <c r="L55" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -35239,32 +34571,20 @@
       <c r="D56">
         <v>317</v>
       </c>
-      <c r="E56">
-        <v>4.5055555555555564</v>
-      </c>
-      <c r="F56">
-        <v>0.83333333333333337</v>
+      <c r="E56" t="s">
+        <v>390</v>
       </c>
       <c r="G56">
-        <v>5.7620513827801769</v>
-      </c>
-      <c r="H56">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I56">
+        <v>0.3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>386</v>
+      </c>
+      <c r="J56">
         <v>4.26</v>
       </c>
-      <c r="J56" t="s">
-        <v>390</v>
-      </c>
-      <c r="K56">
-        <v>0.3</v>
-      </c>
-      <c r="L56" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>329</v>
       </c>
@@ -35277,35 +34597,23 @@
       <c r="D57">
         <v>380</v>
       </c>
-      <c r="E57">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
+      <c r="E57" t="s">
+        <v>374</v>
       </c>
       <c r="G57">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H57">
+        <v>28.4</v>
+      </c>
+      <c r="H57" t="s">
+        <v>482</v>
+      </c>
+      <c r="I57">
         <v>5</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>4.24</v>
       </c>
-      <c r="J57" t="s">
-        <v>374</v>
-      </c>
-      <c r="K57">
-        <v>28.4</v>
-      </c>
-      <c r="L57" t="s">
-        <v>482</v>
-      </c>
-      <c r="N57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>329</v>
       </c>
@@ -35318,35 +34626,23 @@
       <c r="D58">
         <v>380</v>
       </c>
-      <c r="E58">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
+      <c r="E58" t="s">
+        <v>415</v>
       </c>
       <c r="G58">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H58">
+        <v>31.6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>419</v>
+      </c>
+      <c r="I58">
         <v>5</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>4.24</v>
       </c>
-      <c r="J58" t="s">
-        <v>415</v>
-      </c>
-      <c r="K58">
-        <v>31.6</v>
-      </c>
-      <c r="L58" t="s">
-        <v>419</v>
-      </c>
-      <c r="N58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>329</v>
       </c>
@@ -35359,35 +34655,23 @@
       <c r="D59">
         <v>380</v>
       </c>
-      <c r="E59">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
+      <c r="E59" t="s">
+        <v>381</v>
       </c>
       <c r="G59">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H59">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H59" t="s">
+        <v>419</v>
+      </c>
+      <c r="I59">
         <v>5</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>4.24</v>
       </c>
-      <c r="J59" t="s">
-        <v>381</v>
-      </c>
-      <c r="K59">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="L59" t="s">
-        <v>419</v>
-      </c>
-      <c r="N59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>329</v>
       </c>
@@ -35400,35 +34684,23 @@
       <c r="D60">
         <v>380</v>
       </c>
-      <c r="E60">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
+      <c r="E60" t="s">
+        <v>398</v>
       </c>
       <c r="G60">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
+        <v>18.7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>395</v>
       </c>
       <c r="I60">
+        <v>3.61</v>
+      </c>
+      <c r="J60">
         <v>4.24</v>
       </c>
-      <c r="J60" t="s">
-        <v>398</v>
-      </c>
-      <c r="K60">
-        <v>18.7</v>
-      </c>
-      <c r="L60" t="s">
-        <v>395</v>
-      </c>
-      <c r="N60">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>329</v>
       </c>
@@ -35441,35 +34713,23 @@
       <c r="D61">
         <v>380</v>
       </c>
-      <c r="E61">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
+      <c r="E61" t="s">
+        <v>401</v>
       </c>
       <c r="G61">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
+        <v>7.6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>453</v>
       </c>
       <c r="I61">
+        <v>3.59</v>
+      </c>
+      <c r="J61">
         <v>4.24</v>
       </c>
-      <c r="J61" t="s">
-        <v>401</v>
-      </c>
-      <c r="K61">
-        <v>7.6</v>
-      </c>
-      <c r="L61" t="s">
-        <v>453</v>
-      </c>
-      <c r="N61">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -35482,35 +34742,23 @@
       <c r="D62">
         <v>380</v>
       </c>
-      <c r="E62">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
+      <c r="E62" t="s">
+        <v>385</v>
       </c>
       <c r="G62">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
+        <v>7.4</v>
+      </c>
+      <c r="H62" t="s">
+        <v>431</v>
       </c>
       <c r="I62">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="J62">
         <v>4.24</v>
       </c>
-      <c r="J62" t="s">
-        <v>385</v>
-      </c>
-      <c r="K62">
-        <v>7.4</v>
-      </c>
-      <c r="L62" t="s">
-        <v>431</v>
-      </c>
-      <c r="N62">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>329</v>
       </c>
@@ -35523,38 +34771,26 @@
       <c r="D63">
         <v>380</v>
       </c>
-      <c r="E63">
-        <v>4.2122222222222216</v>
+      <c r="E63" t="s">
+        <v>480</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G63">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H63" t="s">
+        <v>464</v>
       </c>
       <c r="I63">
+        <v>2.92</v>
+      </c>
+      <c r="J63">
         <v>4.24</v>
       </c>
-      <c r="J63" t="s">
-        <v>480</v>
-      </c>
-      <c r="K63">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L63" t="s">
-        <v>464</v>
-      </c>
-      <c r="M63">
-        <v>52</v>
-      </c>
-      <c r="N63">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>329</v>
       </c>
@@ -35567,35 +34803,23 @@
       <c r="D64">
         <v>380</v>
       </c>
-      <c r="E64">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
+      <c r="E64" t="s">
+        <v>383</v>
       </c>
       <c r="G64">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>402</v>
       </c>
       <c r="I64">
+        <v>3.5</v>
+      </c>
+      <c r="J64">
         <v>4.24</v>
       </c>
-      <c r="J64" t="s">
-        <v>383</v>
-      </c>
-      <c r="K64">
-        <v>5.5</v>
-      </c>
-      <c r="L64" t="s">
-        <v>402</v>
-      </c>
-      <c r="N64">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>329</v>
       </c>
@@ -35608,35 +34832,23 @@
       <c r="D65">
         <v>380</v>
       </c>
-      <c r="E65">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
+      <c r="E65" t="s">
+        <v>387</v>
       </c>
       <c r="G65">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H65">
-        <v>5</v>
+        <v>7.1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>405</v>
       </c>
       <c r="I65">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J65">
         <v>4.24</v>
       </c>
-      <c r="J65" t="s">
-        <v>387</v>
-      </c>
-      <c r="K65">
-        <v>7.1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>405</v>
-      </c>
-      <c r="N65">
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>329</v>
       </c>
@@ -35649,32 +34861,20 @@
       <c r="D66">
         <v>380</v>
       </c>
-      <c r="E66">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
+      <c r="E66" t="s">
+        <v>392</v>
       </c>
       <c r="G66">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
+        <v>2.6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>375</v>
+      </c>
+      <c r="J66">
         <v>4.24</v>
       </c>
-      <c r="J66" t="s">
-        <v>392</v>
-      </c>
-      <c r="K66">
-        <v>2.6</v>
-      </c>
-      <c r="L66" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>329</v>
       </c>
@@ -35687,29 +34887,17 @@
       <c r="D67">
         <v>380</v>
       </c>
-      <c r="E67">
-        <v>4.2122222222222216</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
+      <c r="E67" t="s">
+        <v>390</v>
       </c>
       <c r="G67">
-        <v>5.9427993751267012</v>
-      </c>
-      <c r="H67">
-        <v>5</v>
-      </c>
-      <c r="I67">
+        <v>2.4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>438</v>
+      </c>
+      <c r="J67">
         <v>4.24</v>
-      </c>
-      <c r="J67" t="s">
-        <v>390</v>
-      </c>
-      <c r="K67">
-        <v>2.4</v>
-      </c>
-      <c r="L67" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
